--- a/data/2023-05-10_bioassay_1.xlsx
+++ b/data/2023-05-10_bioassay_1.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\2023_nut_enrich_bioassays\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB1A266-3E2B-4DE9-9914-16C73840F7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6554B51-4E62-4C88-9029-B23D4AB098B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
     <sheet name="PO4" sheetId="2" r:id="rId2"/>
     <sheet name="NO3" sheetId="3" r:id="rId3"/>
-    <sheet name="NO2" sheetId="4" r:id="rId4"/>
-    <sheet name="All Nutrients" sheetId="5" r:id="rId5"/>
+    <sheet name="NO3 second try" sheetId="6" r:id="rId4"/>
+    <sheet name="NO2" sheetId="4" r:id="rId5"/>
+    <sheet name="NH4" sheetId="10" r:id="rId6"/>
+    <sheet name="All Nutrients" sheetId="5" r:id="rId7"/>
+    <sheet name="All Nutrients with second NO3" sheetId="7" r:id="rId8"/>
+    <sheet name="All Nutrients with second N zer" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -387,8 +391,660 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Catherine Schlenker</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7A6C8E07-FEFB-4025-8632-51635954039E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+of bioassay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9CA04C4D-4399-449B-8CE3-14583319E74D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{01370DFB-CE65-436F-843D-6FF836C8A7B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{32D42A8D-E5C3-4B19-949F-78EBADB2B668}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E87962C0-C53B-4474-BB2F-1DAA4C61A809}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg P/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D2D6C0AE-27EC-44FB-8C11-14F0457A091A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2 + NO3
+mg N/L
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{DCBD5941-AB24-4CFB-80C3-266B2364A13E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2+3 + NH3
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{290896E7-BFE7-4153-9340-C3D21689E210}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{7E6ED9D8-FFEE-4AB0-861E-29D0377B0385}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{2E10BE5E-BDA2-44EF-8050-AA340AF92A4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{A441BF85-9CA9-402B-8431-B4133E08BD36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{8AB60862-BFDE-4078-BF04-D4B16A05910B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{610688DA-F4E7-4825-8A79-406CC7B9E825}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2+3 + NH3
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Catherine Schlenker</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5B5EC0AF-F82B-4ACD-96CB-C8B52802F9E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+of bioassay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{196E4C50-28F6-462D-859E-BA3A121E6226}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3231BF0D-BB44-4355-9C25-3630B59D2E6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{86B698B0-4900-4122-B474-E1B06E7AD92C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A3FF036A-6A3E-463B-9776-ADC8496B24AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg P/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{50657A9E-A0CB-4941-AA3A-CB6A853D1CF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2 + NO3
+mg N/L
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2608B000-11D0-4831-9B9E-F2201481BF9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2+3 + NH3
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{361B652A-553B-4F06-AAB8-57271D67677F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{4AFD48A1-194B-4F51-8816-918506B67E0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{E626EAA7-9224-4ECB-8825-9F4EFFF84401}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{BA922097-14AE-4939-9C09-5A8D26135EE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{A107BD1F-92DB-4BF2-B8FA-267F24BBCB20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{DB4E1E7A-F065-4265-8911-A86F8A464047}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2+3 + NH3
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="108">
   <si>
     <t>Number</t>
   </si>
@@ -614,6 +1270,105 @@
   <si>
     <t>NO2</t>
   </si>
+  <si>
+    <t>T0A 1 1</t>
+  </si>
+  <si>
+    <t>T0A 2 1</t>
+  </si>
+  <si>
+    <t>T0B 1 1</t>
+  </si>
+  <si>
+    <t>T0B 2 1</t>
+  </si>
+  <si>
+    <t>Control A 1 1</t>
+  </si>
+  <si>
+    <t>Control A 2 1</t>
+  </si>
+  <si>
+    <t>Control B 1 1</t>
+  </si>
+  <si>
+    <t>Control B 2 1</t>
+  </si>
+  <si>
+    <t>DIN A 1 1</t>
+  </si>
+  <si>
+    <t>DIN A 2 1</t>
+  </si>
+  <si>
+    <t>DIN B 1 1</t>
+  </si>
+  <si>
+    <t>DIN B 2 1</t>
+  </si>
+  <si>
+    <t>LP A 1 1</t>
+  </si>
+  <si>
+    <t>LP A 2 1</t>
+  </si>
+  <si>
+    <t>LP B 1 1</t>
+  </si>
+  <si>
+    <t>LP B 2 1</t>
+  </si>
+  <si>
+    <t>HP A 1 1</t>
+  </si>
+  <si>
+    <t>HP A 2 1</t>
+  </si>
+  <si>
+    <t>HP B 1 1</t>
+  </si>
+  <si>
+    <t>HP B 2 1</t>
+  </si>
+  <si>
+    <t>DIN + LP A 1 1</t>
+  </si>
+  <si>
+    <t>DIN + LP A 2 1</t>
+  </si>
+  <si>
+    <t>DIN + LP B 1 1</t>
+  </si>
+  <si>
+    <t>DIN + LP B 2 1</t>
+  </si>
+  <si>
+    <t>DIN + HP A 1 1</t>
+  </si>
+  <si>
+    <t>DIN + HP A 2 1</t>
+  </si>
+  <si>
+    <t>DIN + HP B 1 1</t>
+  </si>
+  <si>
+    <t>DIN + HP B 2 1</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Ammonia Seawater 1</t>
+  </si>
+  <si>
+    <t>Standard 96</t>
+  </si>
+  <si>
+    <t>There may be some degradation - note date of test and date of bioassay</t>
+  </si>
+  <si>
+    <t>DIN:DIP</t>
+  </si>
 </sst>
 </file>
 
@@ -623,7 +1378,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,8 +1416,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +1441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +1483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,11 +1502,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,10 +1521,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1729,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0393EBBE-CC48-4149-89DA-2D8F20A8C8C6}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:A37"/>
     </sheetView>
   </sheetViews>
@@ -2983,8 +3747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B730DF7-ED58-44A1-92BC-8CA5AFB58809}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D37"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4231,10 +4995,1248 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519F048-BB21-4B62-A981-FDE8E8DCC890}">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7">
+        <v>9.7750000000000007E-3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>45106.634722222225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4.4715999999999999E-2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>45106.636111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7.9602999999999993E-2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45106.637499999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.184</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.183675</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>45106.638888888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.35528599999999999</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>45106.640277777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.54100300000000001</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>45106.642361111109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.69297500000000001</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>45106.643750000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.076E-2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>45106.645138888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.0108000000000001E-2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45106.646527777775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7">
+        <v>9.9550000000000003E-3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>45106.647916666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.3524E-2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>45106.649305555555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.346E-2</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>45106.650694444441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.1679E-2</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45106.652777777781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.1736999999999999E-2</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45106.654166666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.0279E-2</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>45106.655555555553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.0416999999999999E-2</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45106.656944444447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.3101E-2</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45106.658333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.2064999999999999E-2</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>45106.659722222219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.3398999999999999E-2</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>45106.661805555559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1.4389000000000001E-2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45106.663194444445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.1284000000000001E-2</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>45106.664583333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.1985000000000001E-2</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>45106.665972222225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.0819E-2</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>45106.667361111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.0874E-2</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>45106.668749999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.2492E-2</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>45106.670138888891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1.1926000000000001E-2</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>45106.672222222223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="7">
+        <v>9.9159999999999995E-3</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>45106.673611111109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="7">
+        <v>9.5169999999999994E-3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>45106.675000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1.0954E-2</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>45106.676388888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1.1081000000000001E-2</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>45106.677777777775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1.0062E-2</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>45106.679166666669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.0378999999999999E-2</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>45106.681250000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1.1726E-2</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>45106.682638888888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.1372999999999999E-2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>45106.684027777781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="7">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1.0067E-2</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>45106.685416666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1.0725E-2</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45106.686805555553</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF4E2AF-D0E5-496A-A32E-8CD4C7B10324}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D37"/>
     </sheetView>
   </sheetViews>
@@ -5482,65 +7484,1272 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E099A6A7-683D-49D1-8BC7-73FA927702F9}">
-  <dimension ref="A1:S29"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92E1C9-BD2D-462E-8E89-A36B5C125541}">
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="10"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.130107</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>45149.665972222225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.16661000000000001</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>45149.667361111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.183</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.182506</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45149.668749999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.20561199999999999</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>45149.670138888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.275225</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>45149.671527777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.39142399999999999</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>45149.67291666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.497</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.49712099999999998</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>45149.674305555556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.57743800000000001</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>45149.675694444442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.12958900000000001</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45149.677083333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.139541</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>45149.678472222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.13625000000000001</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>45149.679861111108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.13830100000000001</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>45149.681250000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.16117300000000001</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45149.682638888888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.12869</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45149.684027777781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.13006400000000001</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>45149.685416666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.13197700000000001</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45149.686805555553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.191106</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45149.688194444447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.21097199999999999</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>45149.689583333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.21928900000000001</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>45149.690972222219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.331345</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45149.692361111112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.24397199999999999</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>45149.693749999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.35720099999999999</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>45149.695138888892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.19492699999999999</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>45149.696527777778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.253994</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>45149.697916666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.17666200000000001</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>45149.699305555558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.15204400000000001</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>45149.700694444444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.17336299999999999</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>45149.70208333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.178013</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>45149.703472222223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.33253700000000003</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>45149.704861111109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.169463</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>45149.706250000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.113</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.206012</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>45149.707638888889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.207174</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>45149.709027777775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.229854</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>45149.710416666669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.161048</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>45149.711805555555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.167071</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>45149.713194444441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.157558</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45149.714583333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.17286099999999999</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>45149.71597222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E099A6A7-683D-49D1-8BC7-73FA927702F9}">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:19" s="10" customFormat="1">
+      <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="9">
@@ -5549,33 +8758,48 @@
       <c r="D2" s="9">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="F2" s="11">
+      <c r="E2" s="10">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="F2" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10">
         <f>C2+D2</f>
         <v>2.12E-2</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <f>E2+H2</f>
-        <v>2.12E-2</v>
-      </c>
-      <c r="O2" s="12">
+        <v>-1.78E-2</v>
+      </c>
+      <c r="L2" s="10">
+        <f>(C2/62.01)*1000</f>
+        <v>0.19351717464925011</v>
+      </c>
+      <c r="M2" s="10">
+        <f>(D2/46.01)*1000</f>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N2" s="10">
+        <f>(E2/17.03)*1000</f>
+        <v>-2.2900763358778624</v>
+      </c>
+      <c r="O2" s="10">
         <f>(F2/94.97)*1000</f>
         <v>6.3177845635463831E-2</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="10">
         <f>(H2/62)*1000</f>
         <v>0.34193548387096773</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="10">
         <f>N2+Q2</f>
-        <v>0.34193548387096773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="12" customFormat="1">
-      <c r="A3" s="11" t="s">
+        <v>-1.9481408520068948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="10" customFormat="1">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="9">
@@ -5584,33 +8808,48 @@
       <c r="D3" s="9">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="E3" s="10">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="F3" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H29" si="0">C3+D3</f>
         <v>1.3900000000000001E-2</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <f t="shared" ref="J3:J29" si="1">E3+H3</f>
-        <v>1.3900000000000001E-2</v>
-      </c>
-      <c r="O3" s="12">
-        <f t="shared" ref="O3:O29" si="2">(F3/94.97)*1000</f>
+        <v>-3.2099999999999997E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
+        <v>9.6758587324625056E-2</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
+        <v>0.17170180395566181</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
+        <v>-2.7011156782149146</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
         <v>6.3177845635463831E-2</v>
       </c>
-      <c r="Q3" s="12">
-        <f t="shared" ref="Q3:Q29" si="3">(H3/62)*1000</f>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
         <v>0.22419354838709679</v>
       </c>
-      <c r="S3" s="12">
-        <f t="shared" ref="S3:S29" si="4">N3+Q3</f>
-        <v>0.22419354838709679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="12" customFormat="1">
-      <c r="A4" s="11" t="s">
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
+        <v>-2.4769221298278179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1">
+      <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="9">
@@ -5619,33 +8858,48 @@
       <c r="D4" s="9">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="E4" s="10">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="F4" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <f t="shared" si="1"/>
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="O4" s="12">
+        <v>-2.1200000000000004E-2</v>
+      </c>
+      <c r="L4" s="10">
         <f t="shared" si="2"/>
+        <v>0.19351717464925011</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.4662360540223136</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="5"/>
         <v>6.3177845635463831E-2</v>
       </c>
-      <c r="Q4" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q4" s="10">
+        <f t="shared" si="6"/>
         <v>0.3354838709677419</v>
       </c>
-      <c r="S4" s="12">
-        <f t="shared" si="4"/>
-        <v>0.3354838709677419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="12" customFormat="1">
-      <c r="A5" s="11" t="s">
+      <c r="S4" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.1307521830545717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="10" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="9">
@@ -5654,33 +8908,48 @@
       <c r="D5" s="9">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="F5" s="11">
+      <c r="E5" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="O5" s="12">
+        <v>3.3800000000000004E-2</v>
+      </c>
+      <c r="L5" s="10">
         <f t="shared" si="2"/>
+        <v>0.25802289953233348</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.16952836339926103</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>0.58719906048150317</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="5"/>
         <v>6.3177845635463831E-2</v>
       </c>
-      <c r="Q5" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q5" s="10">
+        <f t="shared" si="6"/>
         <v>0.38387096774193546</v>
       </c>
-      <c r="S5" s="12">
-        <f t="shared" si="4"/>
-        <v>0.38387096774193546</v>
+      <c r="S5" s="10">
+        <f t="shared" si="7"/>
+        <v>0.97107002822343857</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="7">
@@ -5689,34 +8958,48 @@
       <c r="D6" s="7">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="F6" s="13">
+      <c r="E6">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="F6" s="7">
         <v>2E-3</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14">
+      <c r="G6" s="7"/>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14">
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="O6" s="10">
+        <v>-4.3300000000000005E-2</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="2"/>
+        <v>0.17739074342847927</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>-3.6993540810334702</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
         <v>2.1059281878487945E-2</v>
       </c>
-      <c r="Q6" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q6">
+        <f t="shared" si="6"/>
         <v>0.31774193548387092</v>
       </c>
-      <c r="S6" s="14">
-        <f t="shared" si="4"/>
-        <v>0.31774193548387092</v>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>-3.3816121455495991</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="7">
@@ -5725,34 +9008,48 @@
       <c r="D7" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="E7">
+        <v>-0.06</v>
+      </c>
+      <c r="F7" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14">
+      <c r="G7" s="7"/>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14">
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="O7" s="10">
+        <v>-3.6900000000000002E-2</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
+        <v>0.24189646831156264</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.17604868506846338</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>-3.523194362889019</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
         <v>4.2118563756975889E-2</v>
       </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q7">
+        <f t="shared" si="6"/>
         <v>0.3725806451612903</v>
       </c>
-      <c r="S7" s="14">
-        <f t="shared" si="4"/>
-        <v>0.3725806451612903</v>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>-3.1506137177277287</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="7">
@@ -5761,34 +9058,48 @@
       <c r="D8" s="7">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="F8" s="13">
+      <c r="E8">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="F8" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14">
+      <c r="G8" s="7"/>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>1.67E-2</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14">
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>1.67E-2</v>
-      </c>
-      <c r="O8" s="10">
+        <v>-3.9300000000000002E-2</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
+        <v>0.12901144976616674</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>-3.288314738696418</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
         <v>3.1588922817731915E-2</v>
       </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q8">
+        <f t="shared" si="6"/>
         <v>0.26935483870967741</v>
       </c>
-      <c r="S8" s="14">
-        <f t="shared" si="4"/>
-        <v>0.26935483870967741</v>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>-3.0189598999867404</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="7">
@@ -5797,34 +9108,48 @@
       <c r="D9" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="F9" s="13">
+      <c r="E9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F9" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14">
+      <c r="G9" s="7"/>
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14">
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="O9" s="10">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
+        <v>0.20964360587002095</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.17604868506846338</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>4.638872577803876</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
         <v>3.1588922817731915E-2</v>
       </c>
-      <c r="Q9" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q9">
+        <f t="shared" si="6"/>
         <v>0.3403225806451613</v>
       </c>
-      <c r="S9" s="14">
-        <f t="shared" si="4"/>
-        <v>0.3403225806451613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="12" customFormat="1">
-      <c r="A10" s="11" t="s">
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>4.9791951584490377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="10" customFormat="1">
+      <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="9">
@@ -5833,33 +9158,48 @@
       <c r="D10" s="9">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="F10" s="11">
+      <c r="E10" s="10">
+        <v>0.124</v>
+      </c>
+      <c r="F10" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>3.1200000000000002E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <f t="shared" si="1"/>
-        <v>3.1200000000000002E-2</v>
-      </c>
-      <c r="O10" s="12">
+        <v>0.1552</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="2"/>
+        <v>0.33865505563618775</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.22169093675287982</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>7.2812683499706399</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="5"/>
         <v>3.1588922817731915E-2</v>
       </c>
-      <c r="Q10" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q10" s="10">
+        <f t="shared" si="6"/>
         <v>0.50322580645161286</v>
       </c>
-      <c r="S10" s="12">
-        <f t="shared" si="4"/>
-        <v>0.50322580645161286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="12" customFormat="1">
-      <c r="A11" s="11" t="s">
+      <c r="S10" s="10">
+        <f t="shared" si="7"/>
+        <v>7.7844941564222525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="10" customFormat="1">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="9">
@@ -5868,33 +9208,48 @@
       <c r="D11" s="9">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="E11" s="10">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F11" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>3.6199999999999996E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>3.6199999999999996E-2</v>
-      </c>
-      <c r="O11" s="12">
+        <v>0.17919999999999997</v>
+      </c>
+      <c r="L11" s="10">
         <f t="shared" si="2"/>
+        <v>0.43541364296081281</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>8.3969465648854946</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="5"/>
         <v>4.2118563756975889E-2</v>
       </c>
-      <c r="Q11" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q11" s="10">
+        <f t="shared" si="6"/>
         <v>0.58387096774193536</v>
       </c>
-      <c r="S11" s="12">
-        <f t="shared" si="4"/>
-        <v>0.58387096774193536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="12" customFormat="1">
-      <c r="A12" s="11" t="s">
+      <c r="S11" s="10">
+        <f t="shared" si="7"/>
+        <v>8.9808175326274302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="10" customFormat="1">
+      <c r="A12" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="9">
@@ -5903,33 +9258,48 @@
       <c r="D12" s="9">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="F12" s="11">
+      <c r="E12" s="10">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F12" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="O12" s="12">
+        <v>0.4294</v>
+      </c>
+      <c r="L12" s="10">
         <f t="shared" si="2"/>
+        <v>0.35478148685695854</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20430341230167356</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="4"/>
+        <v>23.370522607163828</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="5"/>
         <v>4.2118563756975889E-2</v>
       </c>
-      <c r="Q12" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="10">
+        <f t="shared" si="6"/>
         <v>0.50645161290322582</v>
       </c>
-      <c r="S12" s="12">
-        <f t="shared" si="4"/>
-        <v>0.50645161290322582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="12" customFormat="1">
-      <c r="A13" s="11" t="s">
+      <c r="S12" s="10">
+        <f t="shared" si="7"/>
+        <v>23.876974220067055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="10" customFormat="1">
+      <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="9">
@@ -5938,33 +9308,48 @@
       <c r="D13" s="9">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="F13" s="11">
+      <c r="E13" s="10">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F13" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="O13" s="12">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="L13" s="10">
         <f t="shared" si="2"/>
+        <v>0.46766650540235449</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>11.685261303581914</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="5"/>
         <v>4.2118563756975889E-2</v>
       </c>
-      <c r="Q13" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="10">
+        <f t="shared" si="6"/>
         <v>0.61451612903225816</v>
       </c>
-      <c r="S13" s="12">
-        <f t="shared" si="4"/>
-        <v>0.61451612903225816</v>
+      <c r="S13" s="10">
+        <f t="shared" si="7"/>
+        <v>12.299777432614173</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="7">
@@ -5973,34 +9358,48 @@
       <c r="D14" s="7">
         <v>1.12E-2</v>
       </c>
-      <c r="F14" s="13">
+      <c r="E14">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F14" s="7">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14">
+      <c r="G14" s="7"/>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>2.8200000000000003E-2</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14">
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>2.8200000000000003E-2</v>
-      </c>
-      <c r="O14" s="10">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="2"/>
+        <v>0.27414933075310438</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.24342534231688764</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>26.776277157956546</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
         <v>0.97925660734968933</v>
       </c>
-      <c r="Q14" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q14">
+        <f t="shared" si="6"/>
         <v>0.45483870967741941</v>
       </c>
-      <c r="S14" s="14">
-        <f t="shared" si="4"/>
-        <v>0.45483870967741941</v>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>27.231115867633964</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="7">
@@ -6009,34 +9408,48 @@
       <c r="D15" s="7">
         <v>1.14E-2</v>
       </c>
-      <c r="F15" s="13">
+      <c r="E15">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F15" s="7">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14">
+      <c r="G15" s="7"/>
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>3.04E-2</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14">
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>3.04E-2</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0.11739999999999999</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="2"/>
+        <v>0.30640219319464607</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.24777222342968919</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>5.1086318261890771</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
         <v>1.0003158892281774</v>
       </c>
-      <c r="Q15" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q15">
+        <f t="shared" si="6"/>
         <v>0.49032258064516127</v>
       </c>
-      <c r="S15" s="14">
-        <f t="shared" si="4"/>
-        <v>0.49032258064516127</v>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>5.5989544068342383</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="7">
@@ -6045,34 +9458,48 @@
       <c r="D16" s="7">
         <v>1.09E-2</v>
       </c>
-      <c r="F16" s="13">
+      <c r="E16">
+        <v>0.222</v>
+      </c>
+      <c r="F16" s="7">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14">
+      <c r="G16" s="7"/>
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>2.3899999999999998E-2</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14">
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>2.3899999999999998E-2</v>
-      </c>
-      <c r="O16" s="10">
+        <v>0.24590000000000001</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="2"/>
+        <v>0.20964360587002095</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.23690502064768529</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>13.035819142689371</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
         <v>0.72654522480783412</v>
       </c>
-      <c r="Q16" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q16">
+        <f t="shared" si="6"/>
         <v>0.38548387096774189</v>
       </c>
-      <c r="S16" s="14">
-        <f t="shared" si="4"/>
-        <v>0.38548387096774189</v>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>13.421303013657113</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="7">
@@ -6081,34 +9508,48 @@
       <c r="D17" s="7">
         <v>1.11E-2</v>
       </c>
-      <c r="F17" s="13">
+      <c r="E17">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F17" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14">
+      <c r="G17" s="7"/>
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14">
+      <c r="J17">
         <f t="shared" si="1"/>
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="O17" s="10">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="2"/>
+        <v>0.17739074342847927</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.24125190176048686</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>2.7011156782149146</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
         <v>0.7791934295040539</v>
       </c>
-      <c r="Q17" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q17">
+        <f t="shared" si="6"/>
         <v>0.3564516129032258</v>
       </c>
-      <c r="S17" s="14">
-        <f t="shared" si="4"/>
-        <v>0.3564516129032258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="12" customFormat="1">
-      <c r="A18" s="11" t="s">
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>3.0575672911181404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="10" customFormat="1">
+      <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9">
@@ -6117,33 +9558,48 @@
       <c r="D18" s="9">
         <v>1.03E-2</v>
       </c>
-      <c r="F18" s="11">
+      <c r="E18" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="F18" s="9">
         <v>0.44900000000000001</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12">
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
         <f t="shared" si="0"/>
         <v>3.3299999999999996E-2</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>3.3299999999999996E-2</v>
-      </c>
-      <c r="O18" s="12">
+        <v>2.3299999999999994E-2</v>
+      </c>
+      <c r="L18" s="10">
         <f t="shared" si="2"/>
+        <v>0.37090791807772944</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>0.2238643773092806</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.58719906048150317</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="5"/>
         <v>4.727808781720543</v>
       </c>
-      <c r="Q18" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q18" s="10">
+        <f t="shared" si="6"/>
         <v>0.53709677419354829</v>
       </c>
-      <c r="S18" s="12">
-        <f t="shared" si="4"/>
-        <v>0.53709677419354829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="12" customFormat="1">
-      <c r="A19" s="11" t="s">
+      <c r="S18" s="10">
+        <f t="shared" si="7"/>
+        <v>-5.0102286287954878E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="10" customFormat="1">
+      <c r="A19" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="9">
@@ -6152,33 +9608,48 @@
       <c r="D19" s="9">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="F19" s="11">
+      <c r="E19" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F19" s="9">
         <v>0.45300000000000001</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12">
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
         <f t="shared" si="0"/>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="O19" s="12">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="L19" s="10">
         <f t="shared" si="2"/>
+        <v>0.43541364296081281</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="3"/>
+        <v>0.22821125842208217</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>2.2313564298297122</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="5"/>
         <v>4.7699273454775195</v>
       </c>
-      <c r="Q19" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q19" s="10">
+        <f t="shared" si="6"/>
         <v>0.60483870967741937</v>
       </c>
-      <c r="S19" s="12">
-        <f t="shared" si="4"/>
-        <v>0.60483870967741937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="12" customFormat="1">
-      <c r="A20" s="11" t="s">
+      <c r="S19" s="10">
+        <f t="shared" si="7"/>
+        <v>2.8361951395071316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="10" customFormat="1">
+      <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="9">
@@ -6187,33 +9658,48 @@
       <c r="D20" s="9">
         <v>1.09E-2</v>
       </c>
-      <c r="F20" s="11">
+      <c r="E20" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F20" s="9">
         <v>0.501</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12">
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
         <f t="shared" si="0"/>
         <v>2.3899999999999998E-2</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <f t="shared" si="1"/>
-        <v>2.3899999999999998E-2</v>
-      </c>
-      <c r="O20" s="12">
+        <v>7.2899999999999993E-2</v>
+      </c>
+      <c r="L20" s="10">
         <f t="shared" si="2"/>
+        <v>0.20964360587002095</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.23690502064768529</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>2.8772753963593658</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="5"/>
         <v>5.2753501105612299</v>
       </c>
-      <c r="Q20" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q20" s="10">
+        <f t="shared" si="6"/>
         <v>0.38548387096774189</v>
       </c>
-      <c r="S20" s="12">
-        <f t="shared" si="4"/>
-        <v>0.38548387096774189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="12" customFormat="1">
-      <c r="A21" s="11" t="s">
+      <c r="S20" s="10">
+        <f t="shared" si="7"/>
+        <v>3.2627592673271075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="10" customFormat="1">
+      <c r="A21" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="9">
@@ -6222,33 +9708,48 @@
       <c r="D21" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F21" s="11">
+      <c r="E21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="9">
         <v>0.50800000000000001</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12">
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <f t="shared" si="1"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="O21" s="12">
+        <v>0.42300000000000004</v>
+      </c>
+      <c r="L21" s="10">
         <f t="shared" si="2"/>
+        <v>0.19351717464925011</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.23907846120408607</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>23.487962419260128</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="5"/>
         <v>5.3490575971359382</v>
       </c>
-      <c r="Q21" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q21" s="10">
+        <f t="shared" si="6"/>
         <v>0.37096774193548387</v>
       </c>
-      <c r="S21" s="12">
-        <f t="shared" si="4"/>
-        <v>0.37096774193548387</v>
+      <c r="S21" s="10">
+        <f t="shared" si="7"/>
+        <v>23.858930161195612</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="7">
@@ -6257,34 +9758,48 @@
       <c r="D22" s="7">
         <v>8.6E-3</v>
       </c>
-      <c r="F22" s="13">
+      <c r="E22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F22" s="7">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14">
+      <c r="G22" s="7"/>
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>2.76E-2</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
+      <c r="J22">
         <f t="shared" si="1"/>
-        <v>2.76E-2</v>
-      </c>
-      <c r="O22" s="10">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="2"/>
+        <v>0.30640219319464607</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.18691588785046731</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>1.7028772753963592</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
         <v>0.22112245972412345</v>
       </c>
-      <c r="Q22" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q22">
+        <f t="shared" si="6"/>
         <v>0.44516129032258067</v>
       </c>
-      <c r="S22" s="14">
-        <f t="shared" si="4"/>
-        <v>0.44516129032258067</v>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>2.1480385657189398</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="7">
@@ -6293,34 +9808,48 @@
       <c r="D23" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F23" s="13">
+      <c r="E23">
+        <v>0.113</v>
+      </c>
+      <c r="F23" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14">
+      <c r="G23" s="7"/>
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>2.6999999999999996E-2</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14">
+      <c r="J23">
         <f t="shared" si="1"/>
-        <v>2.6999999999999996E-2</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="2"/>
+        <v>0.29027576197387517</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>6.6353493834409862</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
         <v>0.18953353690639146</v>
       </c>
-      <c r="Q23" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q23">
+        <f t="shared" si="6"/>
         <v>0.43548387096774183</v>
       </c>
-      <c r="S23" s="14">
-        <f t="shared" si="4"/>
-        <v>0.43548387096774183</v>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>7.0708332544087282</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="7">
@@ -6329,34 +9858,48 @@
       <c r="D24" s="7">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F24" s="13">
+      <c r="E24">
+        <v>0.115</v>
+      </c>
+      <c r="F24" s="7">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14">
+      <c r="G24" s="7"/>
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14">
+      <c r="J24">
         <f t="shared" si="1"/>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="O24" s="10">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="2"/>
+        <v>0.12901144976616674</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.18474244729406653</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>6.7527891955372876</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
         <v>0.56860061071917445</v>
       </c>
-      <c r="Q24" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q24">
+        <f t="shared" si="6"/>
         <v>0.26612903225806456</v>
       </c>
-      <c r="S24" s="14">
-        <f t="shared" si="4"/>
-        <v>0.26612903225806456</v>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>7.0189182277953526</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="7">
@@ -6365,34 +9908,48 @@
       <c r="D25" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="F25" s="13">
+      <c r="E25">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F25" s="7">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14">
+      <c r="G25" s="7"/>
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14">
+      <c r="J25">
         <f t="shared" si="1"/>
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="O25" s="10">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="2"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.19343620951966964</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>9.8062243100411042</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
         <v>0.60018953353690641</v>
       </c>
-      <c r="Q25" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q25">
+        <f t="shared" si="6"/>
         <v>0.25645161290322582</v>
       </c>
-      <c r="S25" s="14">
-        <f t="shared" si="4"/>
-        <v>0.25645161290322582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="12" customFormat="1">
-      <c r="A26" s="11" t="s">
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>10.062675922944329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="10" customFormat="1">
+      <c r="A26" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="9">
@@ -6401,33 +9958,48 @@
       <c r="D26" s="9">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="F26" s="11">
+      <c r="E26" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="9">
         <v>0.28799999999999998</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12">
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="O26" s="12">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="L26" s="10">
         <f t="shared" si="2"/>
+        <v>0.2257700370907918</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>0.58719906048150317</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="5"/>
         <v>3.0325365905022634</v>
       </c>
-      <c r="Q26" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q26" s="10">
+        <f t="shared" si="6"/>
         <v>0.36774193548387096</v>
       </c>
-      <c r="S26" s="12">
-        <f t="shared" si="4"/>
-        <v>0.36774193548387096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="12" customFormat="1">
-      <c r="A27" s="11" t="s">
+      <c r="S26" s="10">
+        <f t="shared" si="7"/>
+        <v>0.95494099596537407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="10" customFormat="1">
+      <c r="A27" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="9">
@@ -6436,33 +10008,48 @@
       <c r="D27" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F27" s="11">
+      <c r="E27" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F27" s="9">
         <v>0.315</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12">
+      <c r="G27" s="9"/>
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="O27" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L27" s="10">
         <f t="shared" si="2"/>
+        <v>0.2257700370907918</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>1.4092777451556076</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="5"/>
         <v>3.3168368958618513</v>
       </c>
-      <c r="Q27" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q27" s="10">
+        <f t="shared" si="6"/>
         <v>0.37096774193548387</v>
       </c>
-      <c r="S27" s="12">
-        <f t="shared" si="4"/>
-        <v>0.37096774193548387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="12" customFormat="1">
-      <c r="A28" s="11" t="s">
+      <c r="S27" s="10">
+        <f t="shared" si="7"/>
+        <v>1.7802454870910913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="10" customFormat="1">
+      <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="9">
@@ -6471,33 +10058,48 @@
       <c r="D28" s="9">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="F28" s="11">
+      <c r="E28" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="F28" s="9">
         <v>0.46</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12">
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
         <f t="shared" si="0"/>
         <v>1.6800000000000002E-2</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002E-2</v>
-      </c>
-      <c r="O28" s="12">
+        <v>1.8800000000000004E-2</v>
+      </c>
+      <c r="L28" s="10">
         <f t="shared" si="2"/>
+        <v>0.12901144976616674</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>0.11743981209630065</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="5"/>
         <v>4.8436348320522269</v>
       </c>
-      <c r="Q28" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q28" s="10">
+        <f t="shared" si="6"/>
         <v>0.2709677419354839</v>
       </c>
-      <c r="S28" s="12">
-        <f t="shared" si="4"/>
-        <v>0.2709677419354839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="12" customFormat="1">
-      <c r="A29" s="11" t="s">
+      <c r="S28" s="10">
+        <f t="shared" si="7"/>
+        <v>0.38840755403178456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="10" customFormat="1">
+      <c r="A29" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="9">
@@ -6506,33 +10108,3085 @@
       <c r="D29" s="9">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="F29" s="11">
+      <c r="E29" s="10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F29" s="9">
         <v>0.45600000000000002</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12">
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>1.8099999999999998E-2</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <f t="shared" si="1"/>
-        <v>1.8099999999999998E-2</v>
-      </c>
-      <c r="O29" s="12">
+        <v>5.5099999999999996E-2</v>
+      </c>
+      <c r="L29" s="10">
         <f t="shared" si="2"/>
+        <v>0.14513788098693758</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>2.1726365237815619</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="5"/>
         <v>4.8015162682952512</v>
       </c>
-      <c r="Q29" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q29" s="10">
+        <f t="shared" si="6"/>
         <v>0.29193548387096768</v>
       </c>
-      <c r="S29" s="12">
-        <f t="shared" si="4"/>
-        <v>0.29193548387096768</v>
+      <c r="S29" s="10">
+        <f t="shared" si="7"/>
+        <v>2.4645720076525297</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47557E24-F80A-43A4-B48D-B81BE2211968}">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="10" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10">
+        <f>C2+D2</f>
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="J2" s="10">
+        <f>E2+H2</f>
+        <v>-3.6799999999999999E-2</v>
+      </c>
+      <c r="L2" s="10">
+        <f>(C2/62.01)*1000</f>
+        <v>-0.1128850185453959</v>
+      </c>
+      <c r="M2" s="10">
+        <f>(D2/46.01)*1000</f>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N2" s="10">
+        <f>(E2/17.03)*1000</f>
+        <v>-2.2900763358778624</v>
+      </c>
+      <c r="O2" s="10">
+        <f>(F2/94.97)*1000</f>
+        <v>6.3177845635463831E-2</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>(H2/62)*1000</f>
+        <v>3.5483870967741929E-2</v>
+      </c>
+      <c r="S2" s="10">
+        <f>N2+Q2</f>
+        <v>-2.2545924649101203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="10" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H29" si="0">C3+D3</f>
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J29" si="1">E3+H3</f>
+        <v>-4.6100000000000002E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
+        <v>-0.12901144976616674</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
+        <v>0.17170180395566181</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
+        <v>-2.7011156782149146</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
+        <v>6.3177845635463831E-2</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
+        <v>-1.6129032258064419E-3</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
+        <v>-2.7027285814407209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6799999999999997E-2</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.5200000000000005E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="2"/>
+        <v>0.29027576197387517</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.4662360540223136</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="5"/>
+        <v>6.3177845635463831E-2</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43225806451612897</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.0339779895061847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="10" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4800000000000003E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="1"/>
+        <v>3.4800000000000005E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.27414933075310438</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.16952836339926103</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>0.58719906048150317</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="5"/>
+        <v>6.3177845635463831E-2</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="7"/>
+        <v>0.98719906048150319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E6">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.37E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-4.9299999999999997E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>8.0632156103854213E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>-3.6993540810334702</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>2.1059281878487945E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0.22096774193548388</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>-3.4783863390979861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E7">
+        <v>-0.06</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-4.6899999999999997E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>8.0632156103854213E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.17604868506846338</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>-3.523194362889019</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>4.2118563756975889E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0.21129032258064515</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>-3.3119040403083737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E8">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999993E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-5.33E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>-9.6758587324625056E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>-3.288314738696418</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>3.1588922817731915E-2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>4.354838709677418E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>-3.2447663515996439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999995E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>-8.0632156103854213E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.17604868506846338</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>4.638872577803876</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>3.1588922817731915E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>4.6888725778038758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="10" customFormat="1">
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.124</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1492</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.24189646831156264</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.22169093675287982</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>7.2812683499706399</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="5"/>
+        <v>3.1588922817731915E-2</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="6"/>
+        <v>0.40645161290322579</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="7"/>
+        <v>7.6877199628738655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="10" customFormat="1">
+      <c r="A11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15919999999999998</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>8.3969465648854946</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2118563756975889E-2</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.26129032258064516</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="7"/>
+        <v>8.6582368874661402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="10" customFormat="1">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.4244</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.27414933075310438</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20430341230167356</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="4"/>
+        <v>23.370522607163828</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2118563756975889E-2</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4258064516129032</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="7"/>
+        <v>23.796329058776731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="10" customFormat="1">
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3100000000000004E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.23210000000000003</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.38703434929850022</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>11.685261303581914</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2118563756975889E-2</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="6"/>
+        <v>0.53387096774193554</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="7"/>
+        <v>12.219132271323849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F14" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.32E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>3.2252862441541685E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.24342534231688764</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>26.776277157956546</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0.97925660734968933</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0.2129032258064516</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>26.989180383762999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E15">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.84E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.24777222342968919</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>5.1086318261890771</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1.0003158892281774</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>0.29677419354838708</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>5.4054060197374643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.222</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>-3.2252862441541685E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.23690502064768529</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>13.035819142689371</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0.72654522480783412</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0.1435483870967742</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>13.179367529786145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>-1.6126431220770843E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.24125190176048686</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>2.7011156782149146</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>0.7791934295040539</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0.16290322580645164</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>2.8640189040213664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="10" customFormat="1">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0299999999999998E-2</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.16126431220770843</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>0.2238643773092806</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.58719906048150317</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="5"/>
+        <v>4.727808781720543</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="6"/>
+        <v>0.32741935483870965</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="7"/>
+        <v>-0.25977970564279351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="10" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="1"/>
+        <v>5.45E-2</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6758587324625056E-2</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="3"/>
+        <v>0.22821125842208217</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>2.2313564298297122</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="5"/>
+        <v>4.7699273454775195</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="6"/>
+        <v>0.26612903225806456</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="7"/>
+        <v>2.4974854620877767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="10" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.501</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="1"/>
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.12901144976616674</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.23690502064768529</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>2.8772753963593658</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="5"/>
+        <v>5.2753501105612299</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="6"/>
+        <v>4.6774193548387091E-2</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="7"/>
+        <v>2.924049589907753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="10" customFormat="1">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.17739074342847927</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.23907846120408607</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>23.487962419260128</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="5"/>
+        <v>5.3490575971359382</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="7"/>
+        <v>23.487962419260128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>-1.6126431220770843E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.18691588785046731</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>1.7028772753963592</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>0.22112245972412345</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0.12258064516129032</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>1.8254579205576495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E23">
+        <v>0.113</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>6.6353493834409862</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>0.18953353690639146</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0.14516129032258063</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>6.7805106737635672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="7">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E24">
+        <v>0.115</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000005E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>-0.1128850185453959</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.18474244729406653</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>6.7527891955372876</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0.56860061071917445</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>2.419354838709678E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>6.7769827439243846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E25">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.1709</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>-8.0632156103854213E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.19343620951966964</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>9.8062243100411042</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0.60018953353690641</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>6.2903225806451607E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>9.8691275358475554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="10" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <f t="shared" si="0"/>
+        <v>1.38E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0632156103854213E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>0.58719906048150317</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="5"/>
+        <v>3.0325365905022634</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="6"/>
+        <v>0.22258064516129034</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="7"/>
+        <v>0.80977970564279356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="10" customFormat="1">
+      <c r="A27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.315</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="2"/>
+        <v>3.2252862441541685E-2</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>1.4092777451556076</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="5"/>
+        <v>3.3168368958618513</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="6"/>
+        <v>0.17741935483870966</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="7"/>
+        <v>1.5866970999943173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="10" customFormat="1">
+      <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="9">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000004E-3</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000004E-3</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.1128850185453959</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>0.11743981209630065</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="5"/>
+        <v>4.8436348320522269</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="6"/>
+        <v>2.9032258064516137E-2</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="7"/>
+        <v>0.14647207016081679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="10" customFormat="1">
+      <c r="A29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="9">
+        <v>-2E-3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E29" s="10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.2252862441541685E-2</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>2.1726365237815619</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="5"/>
+        <v>4.8015162682952512</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="6"/>
+        <v>0.11451612903225808</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="7"/>
+        <v>2.2871526528138202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D631D1-C2C9-48EF-80FF-132C6BB6DD8F}">
+  <dimension ref="A1:U29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22:U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10">
+        <f>C2+D2</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="J2" s="10">
+        <f>E2+H2</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="L2" s="10">
+        <f>(C2/62.01)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <f>(D2/46.01)*1000</f>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N2" s="10">
+        <f>(E2/17.03)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <f>(F2/94.97)*1000</f>
+        <v>6.3177845635463831E-2</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>(H2/62)*1000</f>
+        <v>0.14838709677419354</v>
+      </c>
+      <c r="S2" s="10">
+        <f>N2+Q2</f>
+        <v>0.14838709677419354</v>
+      </c>
+      <c r="U2" s="10">
+        <f>S2/O2</f>
+        <v>2.3487204301075266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H29" si="0">C3+D3</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J29" si="1">E3+H3</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
+        <v>0.17170180395566181</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
+        <v>6.3177845635463831E-2</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
+        <v>0.1274193548387097</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
+        <v>0.1274193548387097</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U29" si="8">S3/O3</f>
+        <v>2.0168360215053767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="10" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6799999999999997E-2</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="1"/>
+        <v>2.6799999999999997E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="2"/>
+        <v>0.29027576197387517</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="5"/>
+        <v>6.3177845635463831E-2</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43225806451612897</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="7"/>
+        <v>0.43225806451612897</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="8"/>
+        <v>6.8419247311827949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4800000000000003E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="1"/>
+        <v>3.4800000000000005E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.27414933075310438</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.16952836339926103</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>0.58719906048150317</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="5"/>
+        <v>6.3177845635463831E-2</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="7"/>
+        <v>0.98719906048150319</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="8"/>
+        <v>15.625715795654726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.37E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.37E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>8.0632156103854213E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>2.1059281878487945E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0.22096774193548388</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>0.22096774193548388</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="8"/>
+        <v>10.492653225806452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>8.0632156103854213E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.17604868506846338</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>4.2118563756975889E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0.21129032258064515</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>0.21129032258064515</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="8"/>
+        <v>5.0165604838709674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>3.1588922817731915E-2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0.14032258064516129</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>0.14032258064516129</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="8"/>
+        <v>4.4421451612903224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.17604868506846338</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>4.638872577803876</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>3.1588922817731915E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0.13064516129032258</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>4.7695177390941987</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="8"/>
+        <v>150.98703322725868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="10" customFormat="1">
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.124</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1492</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.24189646831156264</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.22169093675287982</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>7.2812683499706399</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="5"/>
+        <v>3.1588922817731915E-2</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="6"/>
+        <v>0.40645161290322579</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="7"/>
+        <v>7.6877199628738655</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="8"/>
+        <v>243.36758829137699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1">
+      <c r="A11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15919999999999998</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>8.3969465648854946</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2118563756975889E-2</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.26129032258064516</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="7"/>
+        <v>8.6582368874661402</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="8"/>
+        <v>205.56818930066481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.4244</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.27414933075310438</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20430341230167356</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="4"/>
+        <v>23.370522607163828</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2118563756975889E-2</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4258064516129032</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="7"/>
+        <v>23.796329058776731</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="8"/>
+        <v>564.98434267800656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="10" customFormat="1">
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3100000000000004E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.23210000000000003</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.38703434929850022</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>11.685261303581914</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2118563756975889E-2</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="6"/>
+        <v>0.53387096774193554</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="7"/>
+        <v>12.219132271323849</v>
+      </c>
+      <c r="U13" s="10">
+        <f t="shared" si="8"/>
+        <v>290.11274795190644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F14" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.32E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>3.2252862441541685E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.24342534231688764</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>26.776277157956546</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0.97925660734968933</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0.2129032258064516</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>26.989180383762999</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="8"/>
+        <v>27.560886677913679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E15">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.84E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.24777222342968919</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>5.1086318261890771</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1.0003158892281774</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>0.29677419354838708</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>5.4054060197374643</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="8"/>
+        <v>5.403699049415442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.222</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.09E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.2329</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.23690502064768529</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>13.035819142689371</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0.72654522480783412</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0.17580645161290323</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>13.211625594302275</v>
+      </c>
+      <c r="U16" s="13">
+        <f t="shared" si="8"/>
+        <v>18.184175111462128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.24125190176048686</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>2.7011156782149146</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>0.7791934295040539</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0.17903225806451614</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>2.8801479362794309</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="8"/>
+        <v>3.6963195879521291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.16126431220770843</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>0.2238643773092806</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="5"/>
+        <v>4.727808781720543</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="6"/>
+        <v>0.32741935483870965</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="7"/>
+        <v>0.32741935483870965</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="8"/>
+        <v>6.9253933472232201E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="10" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="1"/>
+        <v>5.45E-2</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6758587324625056E-2</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="3"/>
+        <v>0.22821125842208217</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>2.2313564298297122</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="5"/>
+        <v>4.7699273454775195</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="6"/>
+        <v>0.26612903225806456</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="7"/>
+        <v>2.4974854620877767</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="8"/>
+        <v>0.52358983296793848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="10" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.501</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <f t="shared" si="0"/>
+        <v>1.09E-2</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="1"/>
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.23690502064768529</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>2.8772753963593658</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="5"/>
+        <v>5.2753501105612299</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="6"/>
+        <v>0.17580645161290323</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="7"/>
+        <v>3.053081847972269</v>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" si="8"/>
+        <v>0.57874487645095085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="10" customFormat="1">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.23907846120408607</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>23.487962419260128</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="5"/>
+        <v>5.3490575971359382</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="6"/>
+        <v>0.17741935483870966</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="7"/>
+        <v>23.665381774098837</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" si="8"/>
+        <v>4.4242151714294611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>8.6E-3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.18691588785046731</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>1.7028772753963592</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>0.22112245972412345</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0.13870967741935483</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>1.8415869528157141</v>
+      </c>
+      <c r="U22" s="13">
+        <f t="shared" si="8"/>
+        <v>8.3283577575670638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E23">
+        <v>0.113</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>6.6353493834409862</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>0.18953353690639146</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0.14516129032258063</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>6.7805106737635672</v>
+      </c>
+      <c r="U23" s="13">
+        <f t="shared" si="8"/>
+        <v>35.77472770485145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E24">
+        <v>0.115</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.1235</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.18474244729406653</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>6.7527891955372876</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0.56860061071917445</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>0.1370967741935484</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>6.8898859697308357</v>
+      </c>
+      <c r="U24" s="13">
+        <f t="shared" si="8"/>
+        <v>12.117267973061805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E25">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.1759</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.19343620951966964</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>9.8062243100411042</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0.60018953353690641</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>0.1435483870967742</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>9.9497726971378775</v>
+      </c>
+      <c r="U25" s="13">
+        <f t="shared" si="8"/>
+        <v>16.577717772757616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="10" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <f t="shared" si="0"/>
+        <v>1.38E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0632156103854213E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>0.58719906048150317</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="5"/>
+        <v>3.0325365905022634</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="6"/>
+        <v>0.22258064516129034</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="7"/>
+        <v>0.80977970564279356</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="8"/>
+        <v>0.26703048140588931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="10" customFormat="1">
+      <c r="A27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.315</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="2"/>
+        <v>3.2252862441541685E-2</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>1.4092777451556076</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="5"/>
+        <v>3.3168368958618513</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="6"/>
+        <v>0.17741935483870966</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="7"/>
+        <v>1.5866970999943173</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="8"/>
+        <v>0.47837658281415968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="10" customFormat="1">
+      <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>0.11743981209630065</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="5"/>
+        <v>4.8436348320522269</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="6"/>
+        <v>0.14193548387096774</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="7"/>
+        <v>0.25937529596726838</v>
+      </c>
+      <c r="U28" s="10">
+        <f t="shared" si="8"/>
+        <v>5.3549721430459739E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="10" customFormat="1">
+      <c r="A29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E29" s="10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="1"/>
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>2.1726365237815619</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="5"/>
+        <v>4.8015162682952512</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="6"/>
+        <v>0.14677419354838711</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="7"/>
+        <v>2.3194107173299492</v>
+      </c>
+      <c r="U29" s="10">
+        <f t="shared" si="8"/>
+        <v>0.4830579733000554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data/2023-05-10_bioassay_1.xlsx
+++ b/data/2023-05-10_bioassay_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6554B51-4E62-4C88-9029-B23D4AB098B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1CD060-48C9-4EA0-ABE4-F929D7FDC467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="6" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
@@ -8698,8 +8698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E099A6A7-683D-49D1-8BC7-73FA927702F9}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" activeCellId="2" sqref="L6:O9 L14:O17 L22:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8774,28 +8774,28 @@
         <v>-1.78E-2</v>
       </c>
       <c r="L2" s="10">
-        <f>(C2/62.01)*1000</f>
-        <v>0.19351717464925011</v>
+        <f>(C2/14.01)*1000</f>
+        <v>0.85653104925053536</v>
       </c>
       <c r="M2" s="10">
-        <f>(D2/46.01)*1000</f>
-        <v>0.19995653118887199</v>
+        <f>(D2/14.01)*1000</f>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N2" s="10">
-        <f>(E2/17.03)*1000</f>
-        <v>-2.2900763358778624</v>
+        <f>(E2/14.01)*1000</f>
+        <v>-2.78372591006424</v>
       </c>
       <c r="O2" s="10">
-        <f>(F2/94.97)*1000</f>
-        <v>6.3177845635463831E-2</v>
+        <f>(F2/30.97)*1000</f>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q2" s="10">
-        <f>(H2/62)*1000</f>
-        <v>0.34193548387096773</v>
+        <f>L2+M2</f>
+        <v>1.5132048536759457</v>
       </c>
       <c r="S2" s="10">
-        <f>N2+Q2</f>
-        <v>-1.9481408520068948</v>
+        <f>L2+M2+N2</f>
+        <v>-1.2705210563882943</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
@@ -8824,28 +8824,28 @@
         <v>-3.2099999999999997E-2</v>
       </c>
       <c r="L3" s="10">
-        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
-        <v>9.6758587324625056E-2</v>
+        <f t="shared" ref="L3:L29" si="2">(C3/14.01)*1000</f>
+        <v>0.42826552462526768</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
-        <v>0.17170180395566181</v>
+        <f t="shared" ref="M3:M29" si="3">(D3/14.01)*1000</f>
+        <v>0.5638829407566025</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
-        <v>-2.7011156782149146</v>
+        <f t="shared" ref="N3:N29" si="4">(E3/14.01)*1000</f>
+        <v>-3.2833690221270517</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
-        <v>6.3177845635463831E-2</v>
+        <f t="shared" ref="O3:O29" si="5">(F3/30.97)*1000</f>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
-        <v>0.22419354838709679</v>
+        <f t="shared" ref="Q3:Q29" si="6">L3+M3</f>
+        <v>0.99214846538187018</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
-        <v>-2.4769221298278179</v>
+        <f t="shared" ref="S3:S29" si="7">L3+M3+N3</f>
+        <v>-2.2912205567451815</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1">
@@ -8875,27 +8875,27 @@
       </c>
       <c r="L4" s="10">
         <f t="shared" si="2"/>
-        <v>0.19351717464925011</v>
+        <v>0.85653104925053536</v>
       </c>
       <c r="M4" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="4"/>
-        <v>-2.4662360540223136</v>
+        <v>-2.9978586723768736</v>
       </c>
       <c r="O4" s="10">
         <f t="shared" si="5"/>
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q4" s="10">
         <f t="shared" si="6"/>
-        <v>0.3354838709677419</v>
+        <v>1.4846538187009282</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="7"/>
-        <v>-2.1307521830545717</v>
+        <v>-1.5132048536759455</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1">
@@ -8925,27 +8925,27 @@
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>0.25802289953233348</v>
+        <v>1.1420413990007139</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="3"/>
-        <v>0.16952836339926103</v>
+        <v>0.55674518201284795</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="4"/>
-        <v>0.58719906048150317</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="5"/>
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="6"/>
-        <v>0.38387096774193546</v>
+        <v>1.6987865810135618</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="7"/>
-        <v>0.97107002822343857</v>
+        <v>2.4125624553890077</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8973,29 +8973,29 @@
         <f t="shared" si="1"/>
         <v>-4.3300000000000005E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="13">
         <f t="shared" si="2"/>
-        <v>0.17739074342847927</v>
-      </c>
-      <c r="M6">
+        <v>0.78515346181299062</v>
+      </c>
+      <c r="M6" s="13">
         <f t="shared" si="3"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N6">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N6" s="13">
         <f t="shared" si="4"/>
-        <v>-3.6993540810334702</v>
-      </c>
-      <c r="O6">
+        <v>-4.4967880085653107</v>
+      </c>
+      <c r="O6" s="13">
         <f t="shared" si="5"/>
-        <v>2.1059281878487945E-2</v>
+        <v>6.4578624475298677E-2</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>0.31774193548387092</v>
+        <v>1.4061384725196286</v>
       </c>
       <c r="S6">
         <f t="shared" si="7"/>
-        <v>-3.3816121455495991</v>
+        <v>-3.090649536045682</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -9023,29 +9023,29 @@
         <f t="shared" si="1"/>
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.24189646831156264</v>
-      </c>
-      <c r="M7">
+        <v>1.0706638115631693</v>
+      </c>
+      <c r="M7" s="13">
         <f t="shared" si="3"/>
-        <v>0.17604868506846338</v>
-      </c>
-      <c r="N7">
+        <v>0.57815845824411138</v>
+      </c>
+      <c r="N7" s="13">
         <f t="shared" si="4"/>
-        <v>-3.523194362889019</v>
-      </c>
-      <c r="O7">
+        <v>-4.282655246252677</v>
+      </c>
+      <c r="O7" s="13">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>0.3725806451612903</v>
+        <v>1.6488222698072805</v>
       </c>
       <c r="S7">
         <f t="shared" si="7"/>
-        <v>-3.1506137177277287</v>
+        <v>-2.6338329764453965</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -9073,29 +9073,29 @@
         <f t="shared" si="1"/>
         <v>-3.9300000000000002E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="13">
         <f t="shared" si="2"/>
-        <v>0.12901144976616674</v>
-      </c>
-      <c r="M8">
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="M8" s="13">
         <f t="shared" si="3"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N8">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N8" s="13">
         <f t="shared" si="4"/>
-        <v>-3.288314738696418</v>
-      </c>
-      <c r="O8">
+        <v>-3.9971448965024985</v>
+      </c>
+      <c r="O8" s="13">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>0.26935483870967741</v>
+        <v>1.192005710206995</v>
       </c>
       <c r="S8">
         <f t="shared" si="7"/>
-        <v>-3.0189598999867404</v>
+        <v>-2.8051391862955035</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -9123,29 +9123,29 @@
         <f t="shared" si="1"/>
         <v>0.10009999999999999</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="13">
         <f t="shared" si="2"/>
-        <v>0.20964360587002095</v>
-      </c>
-      <c r="M9">
+        <v>0.92790863668807999</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" si="3"/>
-        <v>0.17604868506846338</v>
-      </c>
-      <c r="N9">
+        <v>0.57815845824411138</v>
+      </c>
+      <c r="N9" s="13">
         <f t="shared" si="4"/>
-        <v>4.638872577803876</v>
-      </c>
-      <c r="O9">
+        <v>5.6388294075660239</v>
+      </c>
+      <c r="O9" s="13">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="6"/>
-        <v>0.3403225806451613</v>
+        <v>1.5060670949321913</v>
       </c>
       <c r="S9">
         <f t="shared" si="7"/>
-        <v>4.9791951584490377</v>
+        <v>7.1448965024982147</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="10" customFormat="1">
@@ -9175,27 +9175,27 @@
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>0.33865505563618775</v>
+        <v>1.4989293361884368</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="3"/>
-        <v>0.22169093675287982</v>
+        <v>0.72805139186295509</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="4"/>
-        <v>7.2812683499706399</v>
+        <v>8.8508208422555317</v>
       </c>
       <c r="O10" s="10">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="6"/>
-        <v>0.50322580645161286</v>
+        <v>2.2269807280513918</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="7"/>
-        <v>7.7844941564222525</v>
+        <v>11.077801570306924</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="10" customFormat="1">
@@ -9225,27 +9225,27 @@
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>0.43541364296081281</v>
+        <v>1.9271948608137046</v>
       </c>
       <c r="M11" s="10">
         <f t="shared" si="3"/>
-        <v>0.19995653118887199</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="4"/>
-        <v>8.3969465648854946</v>
+        <v>10.206995003568879</v>
       </c>
       <c r="O11" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="6"/>
-        <v>0.58387096774193536</v>
+        <v>2.5838686652391152</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="7"/>
-        <v>8.9808175326274302</v>
+        <v>12.790863668807994</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="10" customFormat="1">
@@ -9275,27 +9275,27 @@
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>0.35478148685695854</v>
+        <v>1.5703069236259812</v>
       </c>
       <c r="M12" s="10">
         <f t="shared" si="3"/>
-        <v>0.20430341230167356</v>
+        <v>0.67094932191291934</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="4"/>
-        <v>23.370522607163828</v>
+        <v>28.408279800142754</v>
       </c>
       <c r="O12" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="6"/>
-        <v>0.50645161290322582</v>
+        <v>2.2412562455389007</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="7"/>
-        <v>23.876974220067055</v>
+        <v>30.649536045681653</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="10" customFormat="1">
@@ -9325,27 +9325,27 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>0.46766650540235449</v>
+        <v>2.0699500356887941</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="4"/>
-        <v>11.685261303581914</v>
+        <v>14.204139900071377</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="6"/>
-        <v>0.61451612903225816</v>
+        <v>2.7194860813704502</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>12.299777432614173</v>
+        <v>16.923625981441827</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -9373,29 +9373,29 @@
         <f t="shared" si="1"/>
         <v>0.48420000000000002</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="13">
         <f t="shared" si="2"/>
-        <v>0.27414933075310438</v>
-      </c>
-      <c r="M14">
+        <v>1.2134189864382585</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="3"/>
-        <v>0.24342534231688764</v>
-      </c>
-      <c r="N14">
+        <v>0.79942897930049961</v>
+      </c>
+      <c r="N14" s="13">
         <f t="shared" si="4"/>
-        <v>26.776277157956546</v>
-      </c>
-      <c r="O14">
+        <v>32.548179871520347</v>
+      </c>
+      <c r="O14" s="13">
         <f t="shared" si="5"/>
-        <v>0.97925660734968933</v>
+        <v>3.0029060381013886</v>
       </c>
       <c r="Q14">
         <f t="shared" si="6"/>
-        <v>0.45483870967741941</v>
+        <v>2.0128479657387581</v>
       </c>
       <c r="S14">
         <f t="shared" si="7"/>
-        <v>27.231115867633964</v>
+        <v>34.561027837259104</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -9423,29 +9423,29 @@
         <f t="shared" si="1"/>
         <v>0.11739999999999999</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="13">
         <f t="shared" si="2"/>
-        <v>0.30640219319464607</v>
-      </c>
-      <c r="M15">
+        <v>1.3561741613133476</v>
+      </c>
+      <c r="M15" s="13">
         <f t="shared" si="3"/>
-        <v>0.24777222342968919</v>
-      </c>
-      <c r="N15">
+        <v>0.8137044967880086</v>
+      </c>
+      <c r="N15" s="13">
         <f t="shared" si="4"/>
-        <v>5.1086318261890771</v>
-      </c>
-      <c r="O15">
+        <v>6.209850107066381</v>
+      </c>
+      <c r="O15" s="13">
         <f t="shared" si="5"/>
-        <v>1.0003158892281774</v>
+        <v>3.0674846625766872</v>
       </c>
       <c r="Q15">
         <f t="shared" si="6"/>
-        <v>0.49032258064516127</v>
+        <v>2.1698786581013563</v>
       </c>
       <c r="S15">
         <f t="shared" si="7"/>
-        <v>5.5989544068342383</v>
+        <v>8.3797287651677372</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -9473,29 +9473,29 @@
         <f t="shared" si="1"/>
         <v>0.24590000000000001</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="13">
         <f t="shared" si="2"/>
-        <v>0.20964360587002095</v>
-      </c>
-      <c r="M16">
+        <v>0.92790863668807999</v>
+      </c>
+      <c r="M16" s="13">
         <f t="shared" si="3"/>
-        <v>0.23690502064768529</v>
-      </c>
-      <c r="N16">
+        <v>0.77801570306923629</v>
+      </c>
+      <c r="N16" s="13">
         <f t="shared" si="4"/>
-        <v>13.035819142689371</v>
-      </c>
-      <c r="O16">
+        <v>15.845824411134906</v>
+      </c>
+      <c r="O16" s="13">
         <f t="shared" si="5"/>
-        <v>0.72654522480783412</v>
+        <v>2.2279625443978048</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>0.38548387096774189</v>
+        <v>1.7059243397573163</v>
       </c>
       <c r="S16">
         <f t="shared" si="7"/>
-        <v>13.421303013657113</v>
+        <v>17.551748750892223</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9523,29 +9523,29 @@
         <f t="shared" si="1"/>
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="13">
         <f t="shared" si="2"/>
-        <v>0.17739074342847927</v>
-      </c>
-      <c r="M17">
+        <v>0.78515346181299062</v>
+      </c>
+      <c r="M17" s="13">
         <f t="shared" si="3"/>
-        <v>0.24125190176048686</v>
-      </c>
-      <c r="N17">
+        <v>0.79229122055674528</v>
+      </c>
+      <c r="N17" s="13">
         <f t="shared" si="4"/>
-        <v>2.7011156782149146</v>
-      </c>
-      <c r="O17">
+        <v>3.2833690221270517</v>
+      </c>
+      <c r="O17" s="13">
         <f t="shared" si="5"/>
-        <v>0.7791934295040539</v>
+        <v>2.3894091055860511</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>0.3564516129032258</v>
+        <v>1.5774446823697359</v>
       </c>
       <c r="S17">
         <f t="shared" si="7"/>
-        <v>3.0575672911181404</v>
+        <v>4.8608137044967874</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="10" customFormat="1">
@@ -9575,27 +9575,27 @@
       </c>
       <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>0.37090791807772944</v>
+        <v>1.6416845110635259</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="3"/>
-        <v>0.2238643773092806</v>
+        <v>0.73518915060670953</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="4"/>
-        <v>-0.58719906048150317</v>
+        <v>-0.7137758743754461</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="5"/>
-        <v>4.727808781720543</v>
+        <v>14.497901194704554</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="6"/>
-        <v>0.53709677419354829</v>
+        <v>2.3768736616702353</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="7"/>
-        <v>-5.0102286287954878E-2</v>
+        <v>1.6630977872947892</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="10" customFormat="1">
@@ -9625,27 +9625,27 @@
       </c>
       <c r="L19" s="10">
         <f t="shared" si="2"/>
-        <v>0.43541364296081281</v>
+        <v>1.9271948608137046</v>
       </c>
       <c r="M19" s="10">
         <f t="shared" si="3"/>
-        <v>0.22821125842208217</v>
+        <v>0.74946466809421841</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="4"/>
-        <v>2.2313564298297122</v>
+        <v>2.7123483226266951</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="5"/>
-        <v>4.7699273454775195</v>
+        <v>14.627058443655152</v>
       </c>
       <c r="Q19" s="10">
         <f t="shared" si="6"/>
-        <v>0.60483870967741937</v>
+        <v>2.6766595289079231</v>
       </c>
       <c r="S19" s="10">
         <f t="shared" si="7"/>
-        <v>2.8361951395071316</v>
+        <v>5.3890078515346183</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="10" customFormat="1">
@@ -9675,27 +9675,27 @@
       </c>
       <c r="L20" s="10">
         <f t="shared" si="2"/>
-        <v>0.20964360587002095</v>
+        <v>0.92790863668807999</v>
       </c>
       <c r="M20" s="10">
         <f t="shared" si="3"/>
-        <v>0.23690502064768529</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="4"/>
-        <v>2.8772753963593658</v>
+        <v>3.4975017844396858</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="5"/>
-        <v>5.2753501105612299</v>
+        <v>16.176945431062318</v>
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="6"/>
-        <v>0.38548387096774189</v>
+        <v>1.7059243397573163</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="7"/>
-        <v>3.2627592673271075</v>
+        <v>5.2034261241970023</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="10" customFormat="1">
@@ -9725,27 +9725,27 @@
       </c>
       <c r="L21" s="10">
         <f t="shared" si="2"/>
-        <v>0.19351717464925011</v>
+        <v>0.85653104925053536</v>
       </c>
       <c r="M21" s="10">
         <f t="shared" si="3"/>
-        <v>0.23907846120408607</v>
+        <v>0.78515346181299062</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="4"/>
-        <v>23.487962419260128</v>
+        <v>28.551034975017846</v>
       </c>
       <c r="O21" s="10">
         <f t="shared" si="5"/>
-        <v>5.3490575971359382</v>
+        <v>16.402970616725863</v>
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="6"/>
-        <v>0.37096774193548387</v>
+        <v>1.6416845110635259</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="7"/>
-        <v>23.858930161195612</v>
+        <v>30.192719486081373</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -9773,29 +9773,29 @@
         <f t="shared" si="1"/>
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="13">
         <f t="shared" si="2"/>
-        <v>0.30640219319464607</v>
-      </c>
-      <c r="M22">
+        <v>1.3561741613133476</v>
+      </c>
+      <c r="M22" s="13">
         <f t="shared" si="3"/>
-        <v>0.18691588785046731</v>
-      </c>
-      <c r="N22">
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="N22" s="13">
         <f t="shared" si="4"/>
-        <v>1.7028772753963592</v>
-      </c>
-      <c r="O22">
+        <v>2.0699500356887941</v>
+      </c>
+      <c r="O22" s="13">
         <f t="shared" si="5"/>
-        <v>0.22112245972412345</v>
+        <v>0.67807555699063626</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>0.44516129032258067</v>
+        <v>1.9700214132762313</v>
       </c>
       <c r="S22">
         <f t="shared" si="7"/>
-        <v>2.1480385657189398</v>
+        <v>4.0399714489650256</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -9823,29 +9823,29 @@
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="13">
         <f t="shared" si="2"/>
-        <v>0.29027576197387517</v>
-      </c>
-      <c r="M23">
+        <v>1.2847965738758029</v>
+      </c>
+      <c r="M23" s="13">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
-      </c>
-      <c r="N23">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="N23" s="13">
         <f t="shared" si="4"/>
-        <v>6.6353493834409862</v>
-      </c>
-      <c r="O23">
+        <v>8.0656673804425409</v>
+      </c>
+      <c r="O23" s="13">
         <f t="shared" si="5"/>
-        <v>0.18953353690639146</v>
+        <v>0.58120762027768813</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>0.43548387096774183</v>
+        <v>1.9271948608137044</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>7.0708332544087282</v>
+        <v>9.9928622412562458</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -9873,29 +9873,29 @@
         <f t="shared" si="1"/>
         <v>0.13150000000000001</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="13">
         <f t="shared" si="2"/>
-        <v>0.12901144976616674</v>
-      </c>
-      <c r="M24">
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="M24" s="13">
         <f t="shared" si="3"/>
-        <v>0.18474244729406653</v>
-      </c>
-      <c r="N24">
+        <v>0.60670949321912926</v>
+      </c>
+      <c r="N24" s="13">
         <f t="shared" si="4"/>
-        <v>6.7527891955372876</v>
-      </c>
-      <c r="O24">
+        <v>8.2084225553176307</v>
+      </c>
+      <c r="O24" s="13">
         <f t="shared" si="5"/>
-        <v>0.56860061071917445</v>
+        <v>1.7436228608330644</v>
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
-        <v>0.26612903225806456</v>
+        <v>1.1777301927194861</v>
       </c>
       <c r="S24">
         <f t="shared" si="7"/>
-        <v>7.0189182277953526</v>
+        <v>9.3861527480371159</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -9923,29 +9923,29 @@
         <f t="shared" si="1"/>
         <v>0.18290000000000001</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="13">
         <f t="shared" si="2"/>
-        <v>0.1128850185453959</v>
-      </c>
-      <c r="M25">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="M25" s="13">
         <f t="shared" si="3"/>
-        <v>0.19343620951966964</v>
-      </c>
-      <c r="N25">
+        <v>0.63526052819414702</v>
+      </c>
+      <c r="N25" s="13">
         <f t="shared" si="4"/>
-        <v>9.8062243100411042</v>
-      </c>
-      <c r="O25">
+        <v>11.920057102069951</v>
+      </c>
+      <c r="O25" s="13">
         <f t="shared" si="5"/>
-        <v>0.60018953353690641</v>
+        <v>1.8404907975460125</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>0.25645161290322582</v>
+        <v>1.1349036402569594</v>
       </c>
       <c r="S25">
         <f t="shared" si="7"/>
-        <v>10.062675922944329</v>
+        <v>13.054960742326911</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="10" customFormat="1">
@@ -9975,27 +9975,27 @@
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
-        <v>0.2257700370907918</v>
+        <v>0.99928622412562462</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="4"/>
-        <v>0.58719906048150317</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="5"/>
-        <v>3.0325365905022634</v>
+        <v>9.2993219244430101</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="6"/>
-        <v>0.36774193548387096</v>
+        <v>1.6274089935760174</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="7"/>
-        <v>0.95494099596537407</v>
+        <v>2.3411848679514637</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="10" customFormat="1">
@@ -10025,27 +10025,27 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>0.2257700370907918</v>
+        <v>0.99928622412562462</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="4"/>
-        <v>1.4092777451556076</v>
+        <v>1.7130620985010707</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="5"/>
-        <v>3.3168368958618513</v>
+        <v>10.171133354859542</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="6"/>
-        <v>0.37096774193548387</v>
+        <v>1.6416845110635261</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="7"/>
-        <v>1.7802454870910913</v>
+        <v>3.3547466095645966</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="10" customFormat="1">
@@ -10075,27 +10075,27 @@
       </c>
       <c r="L28" s="10">
         <f t="shared" si="2"/>
-        <v>0.12901144976616674</v>
+        <v>0.57102069950035694</v>
       </c>
       <c r="M28" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" si="4"/>
-        <v>0.11743981209630065</v>
+        <v>0.14275517487508924</v>
       </c>
       <c r="O28" s="10">
         <f t="shared" si="5"/>
-        <v>4.8436348320522269</v>
+        <v>14.853083629318697</v>
       </c>
       <c r="Q28" s="10">
         <f t="shared" si="6"/>
-        <v>0.2709677419354839</v>
+        <v>1.1991434689507496</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" si="7"/>
-        <v>0.38840755403178456</v>
+        <v>1.3418986438258389</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="10" customFormat="1">
@@ -10125,27 +10125,27 @@
       </c>
       <c r="L29" s="10">
         <f t="shared" si="2"/>
-        <v>0.14513788098693758</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="M29" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" si="4"/>
-        <v>2.1726365237815619</v>
+        <v>2.6409707351891503</v>
       </c>
       <c r="O29" s="10">
         <f t="shared" si="5"/>
-        <v>4.8015162682952512</v>
+        <v>14.7239263803681</v>
       </c>
       <c r="Q29" s="10">
         <f t="shared" si="6"/>
-        <v>0.29193548387096768</v>
+        <v>1.2919343326195576</v>
       </c>
       <c r="S29" s="10">
         <f t="shared" si="7"/>
-        <v>2.4645720076525297</v>
+        <v>3.9329050678087079</v>
       </c>
     </row>
   </sheetData>
@@ -10159,7 +10159,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+      <selection activeCell="L2" sqref="L2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10234,28 +10234,28 @@
         <v>-3.6799999999999999E-2</v>
       </c>
       <c r="L2" s="10">
-        <f>(C2/62.01)*1000</f>
-        <v>-0.1128850185453959</v>
+        <f>(C2/14.01)*1000</f>
+        <v>-0.49964311206281231</v>
       </c>
       <c r="M2" s="10">
-        <f>(D2/46.01)*1000</f>
-        <v>0.19995653118887199</v>
+        <f>(D2/14.01)*1000</f>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N2" s="10">
-        <f>(E2/17.03)*1000</f>
-        <v>-2.2900763358778624</v>
+        <f>(E2/14.01)*1000</f>
+        <v>-2.78372591006424</v>
       </c>
       <c r="O2" s="10">
-        <f>(F2/94.97)*1000</f>
-        <v>6.3177845635463831E-2</v>
+        <f>(F2/30.97)*1000</f>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q2" s="10">
-        <f>(H2/62)*1000</f>
-        <v>3.5483870967741929E-2</v>
+        <f>L2+M2</f>
+        <v>0.15703069236259803</v>
       </c>
       <c r="S2" s="10">
-        <f>N2+Q2</f>
-        <v>-2.2545924649101203</v>
+        <f>L2+M2+N2</f>
+        <v>-2.6266952177016418</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
@@ -10284,28 +10284,28 @@
         <v>-4.6100000000000002E-2</v>
       </c>
       <c r="L3" s="10">
-        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
-        <v>-0.12901144976616674</v>
+        <f t="shared" ref="L3:L29" si="2">(C3/14.01)*1000</f>
+        <v>-0.57102069950035694</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
-        <v>0.17170180395566181</v>
+        <f t="shared" ref="M3:M29" si="3">(D3/14.01)*1000</f>
+        <v>0.5638829407566025</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
-        <v>-2.7011156782149146</v>
+        <f t="shared" ref="N3:N29" si="4">(E3/14.01)*1000</f>
+        <v>-3.2833690221270517</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
-        <v>6.3177845635463831E-2</v>
+        <f t="shared" ref="O3:O29" si="5">(F3/30.97)*1000</f>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
-        <v>-1.6129032258064419E-3</v>
+        <f t="shared" ref="Q3:Q29" si="6">L3+M3</f>
+        <v>-7.137758743754441E-3</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
-        <v>-2.7027285814407209</v>
+        <f t="shared" ref="S3:S29" si="7">L3+M3+N3</f>
+        <v>-3.2905067808708059</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1">
@@ -10335,27 +10335,27 @@
       </c>
       <c r="L4" s="10">
         <f t="shared" si="2"/>
-        <v>0.29027576197387517</v>
+        <v>1.2847965738758029</v>
       </c>
       <c r="M4" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="4"/>
-        <v>-2.4662360540223136</v>
+        <v>-2.9978586723768736</v>
       </c>
       <c r="O4" s="10">
         <f t="shared" si="5"/>
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q4" s="10">
         <f t="shared" si="6"/>
-        <v>0.43225806451612897</v>
+        <v>1.9129193433261955</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="7"/>
-        <v>-2.0339779895061847</v>
+        <v>-1.0849393290506781</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1">
@@ -10385,27 +10385,27 @@
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>0.27414933075310438</v>
+        <v>1.2134189864382585</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="3"/>
-        <v>0.16952836339926103</v>
+        <v>0.55674518201284795</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="4"/>
-        <v>0.58719906048150317</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="5"/>
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="6"/>
-        <v>0.4</v>
+        <v>1.7701641684511065</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="7"/>
-        <v>0.98719906048150319</v>
+        <v>2.4839400428265526</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10433,29 +10433,29 @@
         <f t="shared" si="1"/>
         <v>-4.9299999999999997E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="13">
         <f t="shared" si="2"/>
-        <v>8.0632156103854213E-2</v>
-      </c>
-      <c r="M6">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="M6" s="13">
         <f t="shared" si="3"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N6">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N6" s="13">
         <f t="shared" si="4"/>
-        <v>-3.6993540810334702</v>
-      </c>
-      <c r="O6">
+        <v>-4.4967880085653107</v>
+      </c>
+      <c r="O6" s="13">
         <f t="shared" si="5"/>
-        <v>2.1059281878487945E-2</v>
+        <v>6.4578624475298677E-2</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>0.22096774193548388</v>
+        <v>0.97787294789436108</v>
       </c>
       <c r="S6">
         <f t="shared" si="7"/>
-        <v>-3.4783863390979861</v>
+        <v>-3.5189150606709498</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10483,29 +10483,29 @@
         <f t="shared" si="1"/>
         <v>-4.6899999999999997E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>8.0632156103854213E-2</v>
-      </c>
-      <c r="M7">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="M7" s="13">
         <f t="shared" si="3"/>
-        <v>0.17604868506846338</v>
-      </c>
-      <c r="N7">
+        <v>0.57815845824411138</v>
+      </c>
+      <c r="N7" s="13">
         <f t="shared" si="4"/>
-        <v>-3.523194362889019</v>
-      </c>
-      <c r="O7">
+        <v>-4.282655246252677</v>
+      </c>
+      <c r="O7" s="13">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>0.21129032258064515</v>
+        <v>0.93504639543183443</v>
       </c>
       <c r="S7">
         <f t="shared" si="7"/>
-        <v>-3.3119040403083737</v>
+        <v>-3.3476088508208424</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -10533,29 +10533,29 @@
         <f t="shared" si="1"/>
         <v>-5.33E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="13">
         <f t="shared" si="2"/>
-        <v>-9.6758587324625056E-2</v>
-      </c>
-      <c r="M8">
+        <v>-0.42826552462526768</v>
+      </c>
+      <c r="M8" s="13">
         <f t="shared" si="3"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N8">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N8" s="13">
         <f t="shared" si="4"/>
-        <v>-3.288314738696418</v>
-      </c>
-      <c r="O8">
+        <v>-3.9971448965024985</v>
+      </c>
+      <c r="O8" s="13">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>4.354838709677418E-2</v>
+        <v>0.19271948608137035</v>
       </c>
       <c r="S8">
         <f t="shared" si="7"/>
-        <v>-3.2447663515996439</v>
+        <v>-3.8044254104211284</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10583,29 +10583,29 @@
         <f t="shared" si="1"/>
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="13">
         <f t="shared" si="2"/>
-        <v>-8.0632156103854213E-2</v>
-      </c>
-      <c r="M9">
+        <v>-0.35688793718772305</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" si="3"/>
-        <v>0.17604868506846338</v>
-      </c>
-      <c r="N9">
+        <v>0.57815845824411138</v>
+      </c>
+      <c r="N9" s="13">
         <f t="shared" si="4"/>
-        <v>4.638872577803876</v>
-      </c>
-      <c r="O9">
+        <v>5.6388294075660239</v>
+      </c>
+      <c r="O9" s="13">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="6"/>
-        <v>4.9999999999999989E-2</v>
+        <v>0.22127052105638834</v>
       </c>
       <c r="S9">
         <f t="shared" si="7"/>
-        <v>4.6888725778038758</v>
+        <v>5.8600999286224127</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="10" customFormat="1">
@@ -10635,27 +10635,27 @@
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>0.24189646831156264</v>
+        <v>1.0706638115631693</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="3"/>
-        <v>0.22169093675287982</v>
+        <v>0.72805139186295509</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="4"/>
-        <v>7.2812683499706399</v>
+        <v>8.8508208422555317</v>
       </c>
       <c r="O10" s="10">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="6"/>
-        <v>0.40645161290322579</v>
+        <v>1.7987152034261245</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="7"/>
-        <v>7.6877199628738655</v>
+        <v>10.649536045681657</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="10" customFormat="1">
@@ -10685,27 +10685,27 @@
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>0.1128850185453959</v>
+        <v>0.49964311206281231</v>
       </c>
       <c r="M11" s="10">
         <f t="shared" si="3"/>
-        <v>0.19995653118887199</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="4"/>
-        <v>8.3969465648854946</v>
+        <v>10.206995003568879</v>
       </c>
       <c r="O11" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="6"/>
-        <v>0.26129032258064516</v>
+        <v>1.1563169164882225</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="7"/>
-        <v>8.6582368874661402</v>
+        <v>11.363311920057102</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="10" customFormat="1">
@@ -10735,27 +10735,27 @@
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>0.27414933075310438</v>
+        <v>1.2134189864382585</v>
       </c>
       <c r="M12" s="10">
         <f t="shared" si="3"/>
-        <v>0.20430341230167356</v>
+        <v>0.67094932191291934</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="4"/>
-        <v>23.370522607163828</v>
+        <v>28.408279800142754</v>
       </c>
       <c r="O12" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="6"/>
-        <v>0.4258064516129032</v>
+        <v>1.8843683083511777</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="7"/>
-        <v>23.796329058776731</v>
+        <v>30.292648108493932</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="10" customFormat="1">
@@ -10785,27 +10785,27 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>0.38703434929850022</v>
+        <v>1.7130620985010707</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="4"/>
-        <v>11.685261303581914</v>
+        <v>14.204139900071377</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="6"/>
-        <v>0.53387096774193554</v>
+        <v>2.3625981441827268</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>12.219132271323849</v>
+        <v>16.566738044254105</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -10833,29 +10833,29 @@
         <f t="shared" si="1"/>
         <v>0.46920000000000001</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="13">
         <f t="shared" si="2"/>
-        <v>3.2252862441541685E-2</v>
-      </c>
-      <c r="M14">
+        <v>0.14275517487508924</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="3"/>
-        <v>0.24342534231688764</v>
-      </c>
-      <c r="N14">
+        <v>0.79942897930049961</v>
+      </c>
+      <c r="N14" s="13">
         <f t="shared" si="4"/>
-        <v>26.776277157956546</v>
-      </c>
-      <c r="O14">
+        <v>32.548179871520347</v>
+      </c>
+      <c r="O14" s="13">
         <f t="shared" si="5"/>
-        <v>0.97925660734968933</v>
+        <v>3.0029060381013886</v>
       </c>
       <c r="Q14">
         <f t="shared" si="6"/>
-        <v>0.2129032258064516</v>
+        <v>0.94218415417558887</v>
       </c>
       <c r="S14">
         <f t="shared" si="7"/>
-        <v>26.989180383762999</v>
+        <v>33.490364025695939</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -10883,29 +10883,29 @@
         <f t="shared" si="1"/>
         <v>0.10539999999999999</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="13">
         <f t="shared" si="2"/>
-        <v>0.1128850185453959</v>
-      </c>
-      <c r="M15">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="M15" s="13">
         <f t="shared" si="3"/>
-        <v>0.24777222342968919</v>
-      </c>
-      <c r="N15">
+        <v>0.8137044967880086</v>
+      </c>
+      <c r="N15" s="13">
         <f t="shared" si="4"/>
-        <v>5.1086318261890771</v>
-      </c>
-      <c r="O15">
+        <v>6.209850107066381</v>
+      </c>
+      <c r="O15" s="13">
         <f t="shared" si="5"/>
-        <v>1.0003158892281774</v>
+        <v>3.0674846625766872</v>
       </c>
       <c r="Q15">
         <f t="shared" si="6"/>
-        <v>0.29677419354838708</v>
+        <v>1.3133476088508209</v>
       </c>
       <c r="S15">
         <f t="shared" si="7"/>
-        <v>5.4054060197374643</v>
+        <v>7.5231977159172017</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10933,29 +10933,29 @@
         <f t="shared" si="1"/>
         <v>0.23089999999999999</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="13">
         <f t="shared" si="2"/>
-        <v>-3.2252862441541685E-2</v>
-      </c>
-      <c r="M16">
+        <v>-0.14275517487508924</v>
+      </c>
+      <c r="M16" s="13">
         <f t="shared" si="3"/>
-        <v>0.23690502064768529</v>
-      </c>
-      <c r="N16">
+        <v>0.77801570306923629</v>
+      </c>
+      <c r="N16" s="13">
         <f t="shared" si="4"/>
-        <v>13.035819142689371</v>
-      </c>
-      <c r="O16">
+        <v>15.845824411134906</v>
+      </c>
+      <c r="O16" s="13">
         <f t="shared" si="5"/>
-        <v>0.72654522480783412</v>
+        <v>2.2279625443978048</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>0.1435483870967742</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="S16">
         <f t="shared" si="7"/>
-        <v>13.179367529786145</v>
+        <v>16.481084939329055</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -10983,29 +10983,29 @@
         <f t="shared" si="1"/>
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="13">
         <f t="shared" si="2"/>
-        <v>-1.6126431220770843E-2</v>
-      </c>
-      <c r="M17">
+        <v>-7.1377587437544618E-2</v>
+      </c>
+      <c r="M17" s="13">
         <f t="shared" si="3"/>
-        <v>0.24125190176048686</v>
-      </c>
-      <c r="N17">
+        <v>0.79229122055674528</v>
+      </c>
+      <c r="N17" s="13">
         <f t="shared" si="4"/>
-        <v>2.7011156782149146</v>
-      </c>
-      <c r="O17">
+        <v>3.2833690221270517</v>
+      </c>
+      <c r="O17" s="13">
         <f t="shared" si="5"/>
-        <v>0.7791934295040539</v>
+        <v>2.3894091055860511</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>0.16290322580645164</v>
+        <v>0.72091363311920065</v>
       </c>
       <c r="S17">
         <f t="shared" si="7"/>
-        <v>2.8640189040213664</v>
+        <v>4.0042826552462527</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="10" customFormat="1">
@@ -11035,27 +11035,27 @@
       </c>
       <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>0.16126431220770843</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="3"/>
-        <v>0.2238643773092806</v>
+        <v>0.73518915060670953</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="4"/>
-        <v>-0.58719906048150317</v>
+        <v>-0.7137758743754461</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="5"/>
-        <v>4.727808781720543</v>
+        <v>14.497901194704554</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="6"/>
-        <v>0.32741935483870965</v>
+        <v>1.4489650249821557</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="7"/>
-        <v>-0.25977970564279351</v>
+        <v>0.73518915060670964</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="10" customFormat="1">
@@ -11085,27 +11085,27 @@
       </c>
       <c r="L19" s="10">
         <f t="shared" si="2"/>
-        <v>9.6758587324625056E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="M19" s="10">
         <f t="shared" si="3"/>
-        <v>0.22821125842208217</v>
+        <v>0.74946466809421841</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="4"/>
-        <v>2.2313564298297122</v>
+        <v>2.7123483226266951</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="5"/>
-        <v>4.7699273454775195</v>
+        <v>14.627058443655152</v>
       </c>
       <c r="Q19" s="10">
         <f t="shared" si="6"/>
-        <v>0.26612903225806456</v>
+        <v>1.1777301927194861</v>
       </c>
       <c r="S19" s="10">
         <f t="shared" si="7"/>
-        <v>2.4974854620877767</v>
+        <v>3.8900785153461812</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="10" customFormat="1">
@@ -11135,27 +11135,27 @@
       </c>
       <c r="L20" s="10">
         <f t="shared" si="2"/>
-        <v>-0.12901144976616674</v>
+        <v>-0.57102069950035694</v>
       </c>
       <c r="M20" s="10">
         <f t="shared" si="3"/>
-        <v>0.23690502064768529</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="4"/>
-        <v>2.8772753963593658</v>
+        <v>3.4975017844396858</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="5"/>
-        <v>5.2753501105612299</v>
+        <v>16.176945431062318</v>
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="6"/>
-        <v>4.6774193548387091E-2</v>
+        <v>0.20699500356887934</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="7"/>
-        <v>2.924049589907753</v>
+        <v>3.7044967880085653</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="10" customFormat="1">
@@ -11185,19 +11185,19 @@
       </c>
       <c r="L21" s="10">
         <f t="shared" si="2"/>
-        <v>-0.17739074342847927</v>
+        <v>-0.78515346181299062</v>
       </c>
       <c r="M21" s="10">
         <f t="shared" si="3"/>
-        <v>0.23907846120408607</v>
+        <v>0.78515346181299062</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="4"/>
-        <v>23.487962419260128</v>
+        <v>28.551034975017846</v>
       </c>
       <c r="O21" s="10">
         <f t="shared" si="5"/>
-        <v>5.3490575971359382</v>
+        <v>16.402970616725863</v>
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="6"/>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="S21" s="10">
         <f t="shared" si="7"/>
-        <v>23.487962419260128</v>
+        <v>28.551034975017846</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -11233,29 +11233,29 @@
         <f t="shared" si="1"/>
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="13">
         <f t="shared" si="2"/>
-        <v>-1.6126431220770843E-2</v>
-      </c>
-      <c r="M22">
+        <v>-7.1377587437544618E-2</v>
+      </c>
+      <c r="M22" s="13">
         <f t="shared" si="3"/>
-        <v>0.18691588785046731</v>
-      </c>
-      <c r="N22">
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="N22" s="13">
         <f t="shared" si="4"/>
-        <v>1.7028772753963592</v>
-      </c>
-      <c r="O22">
+        <v>2.0699500356887941</v>
+      </c>
+      <c r="O22" s="13">
         <f t="shared" si="5"/>
-        <v>0.22112245972412345</v>
+        <v>0.67807555699063626</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>0.12258064516129032</v>
+        <v>0.54246966452533907</v>
       </c>
       <c r="S22">
         <f t="shared" si="7"/>
-        <v>1.8254579205576495</v>
+        <v>2.6124197002141329</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -11283,29 +11283,29 @@
         <f t="shared" si="1"/>
         <v>0.122</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="13">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
-      </c>
-      <c r="N23">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="N23" s="13">
         <f t="shared" si="4"/>
-        <v>6.6353493834409862</v>
-      </c>
-      <c r="O23">
+        <v>8.0656673804425409</v>
+      </c>
+      <c r="O23" s="13">
         <f t="shared" si="5"/>
-        <v>0.18953353690639146</v>
+        <v>0.58120762027768813</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>0.14516129032258063</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>6.7805106737635672</v>
+        <v>8.708065667380442</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -11333,29 +11333,29 @@
         <f t="shared" si="1"/>
         <v>0.11650000000000001</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="13">
         <f t="shared" si="2"/>
-        <v>-0.1128850185453959</v>
-      </c>
-      <c r="M24">
+        <v>-0.49964311206281231</v>
+      </c>
+      <c r="M24" s="13">
         <f t="shared" si="3"/>
-        <v>0.18474244729406653</v>
-      </c>
-      <c r="N24">
+        <v>0.60670949321912926</v>
+      </c>
+      <c r="N24" s="13">
         <f t="shared" si="4"/>
-        <v>6.7527891955372876</v>
-      </c>
-      <c r="O24">
+        <v>8.2084225553176307</v>
+      </c>
+      <c r="O24" s="13">
         <f t="shared" si="5"/>
-        <v>0.56860061071917445</v>
+        <v>1.7436228608330644</v>
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
-        <v>2.419354838709678E-2</v>
+        <v>0.10706638115631695</v>
       </c>
       <c r="S24">
         <f t="shared" si="7"/>
-        <v>6.7769827439243846</v>
+        <v>8.3154889364739475</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -11383,29 +11383,29 @@
         <f t="shared" si="1"/>
         <v>0.1709</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="13">
         <f t="shared" si="2"/>
-        <v>-8.0632156103854213E-2</v>
-      </c>
-      <c r="M25">
+        <v>-0.35688793718772305</v>
+      </c>
+      <c r="M25" s="13">
         <f t="shared" si="3"/>
-        <v>0.19343620951966964</v>
-      </c>
-      <c r="N25">
+        <v>0.63526052819414702</v>
+      </c>
+      <c r="N25" s="13">
         <f t="shared" si="4"/>
-        <v>9.8062243100411042</v>
-      </c>
-      <c r="O25">
+        <v>11.920057102069951</v>
+      </c>
+      <c r="O25" s="13">
         <f t="shared" si="5"/>
-        <v>0.60018953353690641</v>
+        <v>1.8404907975460125</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>6.2903225806451607E-2</v>
+        <v>0.27837259100642398</v>
       </c>
       <c r="S25">
         <f t="shared" si="7"/>
-        <v>9.8691275358475554</v>
+        <v>12.198429693076374</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="10" customFormat="1">
@@ -11435,27 +11435,27 @@
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
-        <v>8.0632156103854213E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="4"/>
-        <v>0.58719906048150317</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="5"/>
-        <v>3.0325365905022634</v>
+        <v>9.2993219244430101</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="6"/>
-        <v>0.22258064516129034</v>
+        <v>0.98501070663811574</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="7"/>
-        <v>0.80977970564279356</v>
+        <v>1.6987865810135618</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="10" customFormat="1">
@@ -11485,27 +11485,27 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>3.2252862441541685E-2</v>
+        <v>0.14275517487508924</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="4"/>
-        <v>1.4092777451556076</v>
+        <v>1.7130620985010707</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="5"/>
-        <v>3.3168368958618513</v>
+        <v>10.171133354859542</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="6"/>
-        <v>0.17741935483870966</v>
+        <v>0.78515346181299073</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="7"/>
-        <v>1.5866970999943173</v>
+        <v>2.4982155603140614</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="10" customFormat="1">
@@ -11535,27 +11535,27 @@
       </c>
       <c r="L28" s="10">
         <f t="shared" si="2"/>
-        <v>-0.1128850185453959</v>
+        <v>-0.49964311206281231</v>
       </c>
       <c r="M28" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" si="4"/>
-        <v>0.11743981209630065</v>
+        <v>0.14275517487508924</v>
       </c>
       <c r="O28" s="10">
         <f t="shared" si="5"/>
-        <v>4.8436348320522269</v>
+        <v>14.853083629318697</v>
       </c>
       <c r="Q28" s="10">
         <f t="shared" si="6"/>
-        <v>2.9032258064516137E-2</v>
+        <v>0.12847965738758038</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" si="7"/>
-        <v>0.14647207016081679</v>
+        <v>0.27123483226266965</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="10" customFormat="1">
@@ -11585,27 +11585,27 @@
       </c>
       <c r="L29" s="10">
         <f t="shared" si="2"/>
-        <v>-3.2252862441541685E-2</v>
+        <v>-0.14275517487508924</v>
       </c>
       <c r="M29" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" si="4"/>
-        <v>2.1726365237815619</v>
+        <v>2.6409707351891503</v>
       </c>
       <c r="O29" s="10">
         <f t="shared" si="5"/>
-        <v>4.8015162682952512</v>
+        <v>14.7239263803681</v>
       </c>
       <c r="Q29" s="10">
         <f t="shared" si="6"/>
-        <v>0.11451612903225808</v>
+        <v>0.50678087080656675</v>
       </c>
       <c r="S29" s="10">
         <f t="shared" si="7"/>
-        <v>2.2871526528138202</v>
+        <v>3.1477516059957171</v>
       </c>
     </row>
   </sheetData>
@@ -11619,8 +11619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D631D1-C2C9-48EF-80FF-132C6BB6DD8F}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22:U25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11698,32 +11698,32 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="L2" s="10">
-        <f>(C2/62.01)*1000</f>
+        <f>(C2/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="M2" s="10">
-        <f>(D2/46.01)*1000</f>
-        <v>0.19995653118887199</v>
+        <f>(D2/14.01)*1000</f>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N2" s="10">
-        <f>(E2/17.03)*1000</f>
+        <f>(E2/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="O2" s="10">
-        <f>(F2/94.97)*1000</f>
-        <v>6.3177845635463831E-2</v>
+        <f>(F2/30.97)*1000</f>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q2" s="10">
-        <f>(H2/62)*1000</f>
-        <v>0.14838709677419354</v>
+        <f>L2+M2</f>
+        <v>0.65667380442541035</v>
       </c>
       <c r="S2" s="10">
-        <f>N2+Q2</f>
-        <v>0.14838709677419354</v>
+        <f>L2+M2+N2</f>
+        <v>0.65667380442541035</v>
       </c>
       <c r="U2" s="10">
         <f>S2/O2</f>
-        <v>2.3487204301075266</v>
+        <v>3.3895312871758261</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1">
@@ -11752,32 +11752,32 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="L3" s="10">
-        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
+        <f t="shared" ref="L3:L29" si="2">(C3/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
-        <v>0.17170180395566181</v>
+        <f t="shared" ref="M3:M29" si="3">(D3/14.01)*1000</f>
+        <v>0.5638829407566025</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
+        <f t="shared" ref="N3:N29" si="4">(E3/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
-        <v>6.3177845635463831E-2</v>
+        <f t="shared" ref="O3:O29" si="5">(F3/30.97)*1000</f>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
-        <v>0.1274193548387097</v>
+        <f t="shared" ref="Q3:Q29" si="6">L3+M3</f>
+        <v>0.5638829407566025</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
-        <v>0.1274193548387097</v>
+        <f t="shared" ref="S3:S29" si="7">L3+M3+N3</f>
+        <v>0.5638829407566025</v>
       </c>
       <c r="U3" s="10">
         <f t="shared" ref="U3:U29" si="8">S3/O3</f>
-        <v>2.0168360215053767</v>
+        <v>2.9105757792053297</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="10" customFormat="1">
@@ -11807,11 +11807,11 @@
       </c>
       <c r="L4" s="10">
         <f t="shared" si="2"/>
-        <v>0.29027576197387517</v>
+        <v>1.2847965738758029</v>
       </c>
       <c r="M4" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="4"/>
@@ -11819,19 +11819,19 @@
       </c>
       <c r="O4" s="10">
         <f t="shared" si="5"/>
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q4" s="10">
         <f t="shared" si="6"/>
-        <v>0.43225806451612897</v>
+        <v>1.9129193433261955</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="7"/>
-        <v>0.43225806451612897</v>
+        <v>1.9129193433261955</v>
       </c>
       <c r="U4" s="10">
         <f t="shared" si="8"/>
-        <v>6.8419247311827949</v>
+        <v>9.8738520104687115</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="10" customFormat="1">
@@ -11861,31 +11861,31 @@
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>0.27414933075310438</v>
+        <v>1.2134189864382585</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="3"/>
-        <v>0.16952836339926103</v>
+        <v>0.55674518201284795</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="4"/>
-        <v>0.58719906048150317</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="5"/>
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="6"/>
-        <v>0.4</v>
+        <v>1.7701641684511065</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="7"/>
-        <v>0.98719906048150319</v>
+        <v>2.4839400428265526</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="8"/>
-        <v>15.625715795654726</v>
+        <v>12.821270521056388</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -11913,33 +11913,33 @@
         <f t="shared" si="1"/>
         <v>1.37E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="13">
         <f t="shared" si="2"/>
-        <v>8.0632156103854213E-2</v>
-      </c>
-      <c r="M6">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="M6" s="13">
         <f t="shared" si="3"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N6">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N6" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="13">
         <f t="shared" si="5"/>
-        <v>2.1059281878487945E-2</v>
+        <v>6.4578624475298677E-2</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>0.22096774193548388</v>
+        <v>0.97787294789436108</v>
       </c>
       <c r="S6">
         <f t="shared" si="7"/>
-        <v>0.22096774193548388</v>
-      </c>
-      <c r="U6" s="13">
+        <v>0.97787294789436108</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="8"/>
-        <v>10.492653225806452</v>
+        <v>15.142362598144182</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -11967,33 +11967,33 @@
         <f t="shared" si="1"/>
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>8.0632156103854213E-2</v>
-      </c>
-      <c r="M7">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="M7" s="13">
         <f t="shared" si="3"/>
-        <v>0.17604868506846338</v>
-      </c>
-      <c r="N7">
+        <v>0.57815845824411138</v>
+      </c>
+      <c r="N7" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="13">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>0.21129032258064515</v>
+        <v>0.93504639543183443</v>
       </c>
       <c r="S7">
         <f t="shared" si="7"/>
-        <v>0.21129032258064515</v>
-      </c>
-      <c r="U7" s="13">
+        <v>0.93504639543183443</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="8"/>
-        <v>5.0165604838709674</v>
+        <v>7.2395967166309783</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -12021,33 +12021,33 @@
         <f t="shared" si="1"/>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="13">
         <f t="shared" si="3"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N8">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N8" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="13">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="S8">
         <f t="shared" si="7"/>
-        <v>0.14032258064516129</v>
-      </c>
-      <c r="U8" s="13">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="8"/>
-        <v>4.4421451612903224</v>
+        <v>6.4106352605281929</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -12075,33 +12075,33 @@
         <f t="shared" si="1"/>
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="13">
         <f t="shared" si="3"/>
-        <v>0.17604868506846338</v>
-      </c>
-      <c r="N9">
+        <v>0.57815845824411138</v>
+      </c>
+      <c r="N9" s="13">
         <f t="shared" si="4"/>
-        <v>4.638872577803876</v>
-      </c>
-      <c r="O9">
+        <v>5.6388294075660239</v>
+      </c>
+      <c r="O9" s="13">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="6"/>
-        <v>0.13064516129032258</v>
+        <v>0.57815845824411138</v>
       </c>
       <c r="S9">
         <f t="shared" si="7"/>
-        <v>4.7695177390941987</v>
-      </c>
-      <c r="U9" s="13">
+        <v>6.2169878658101352</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="8"/>
-        <v>150.98703322725868</v>
+        <v>64.180038068046628</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1">
@@ -12131,31 +12131,31 @@
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>0.24189646831156264</v>
+        <v>1.0706638115631693</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="3"/>
-        <v>0.22169093675287982</v>
+        <v>0.72805139186295509</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="4"/>
-        <v>7.2812683499706399</v>
+        <v>8.8508208422555317</v>
       </c>
       <c r="O10" s="10">
         <f t="shared" si="5"/>
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="6"/>
-        <v>0.40645161290322579</v>
+        <v>1.7987152034261245</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="7"/>
-        <v>7.6877199628738655</v>
+        <v>10.649536045681657</v>
       </c>
       <c r="U10" s="10">
         <f t="shared" si="8"/>
-        <v>243.36758829137699</v>
+        <v>109.9387104449203</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1">
@@ -12185,31 +12185,31 @@
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>0.1128850185453959</v>
+        <v>0.49964311206281231</v>
       </c>
       <c r="M11" s="10">
         <f t="shared" si="3"/>
-        <v>0.19995653118887199</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="4"/>
-        <v>8.3969465648854946</v>
+        <v>10.206995003568879</v>
       </c>
       <c r="O11" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="6"/>
-        <v>0.26129032258064516</v>
+        <v>1.1563169164882225</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="7"/>
-        <v>8.6582368874661402</v>
+        <v>11.363311920057102</v>
       </c>
       <c r="U11" s="10">
         <f t="shared" si="8"/>
-        <v>205.56818930066481</v>
+        <v>87.980442541042109</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="10" customFormat="1">
@@ -12239,31 +12239,31 @@
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>0.27414933075310438</v>
+        <v>1.2134189864382585</v>
       </c>
       <c r="M12" s="10">
         <f t="shared" si="3"/>
-        <v>0.20430341230167356</v>
+        <v>0.67094932191291934</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="4"/>
-        <v>23.370522607163828</v>
+        <v>28.408279800142754</v>
       </c>
       <c r="O12" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="6"/>
-        <v>0.4258064516129032</v>
+        <v>1.8843683083511777</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="7"/>
-        <v>23.796329058776731</v>
+        <v>30.292648108493932</v>
       </c>
       <c r="U12" s="10">
         <f t="shared" si="8"/>
-        <v>564.98434267800656</v>
+        <v>234.54082798001426</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="10" customFormat="1">
@@ -12293,31 +12293,31 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>0.38703434929850022</v>
+        <v>1.7130620985010707</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="4"/>
-        <v>11.685261303581914</v>
+        <v>14.204139900071377</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="5"/>
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="6"/>
-        <v>0.53387096774193554</v>
+        <v>2.3625981441827268</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>12.219132271323849</v>
+        <v>16.566738044254105</v>
       </c>
       <c r="U13" s="10">
         <f t="shared" si="8"/>
-        <v>290.11274795190644</v>
+        <v>128.2679693076374</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -12345,33 +12345,33 @@
         <f t="shared" si="1"/>
         <v>0.46920000000000001</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="13">
         <f t="shared" si="2"/>
-        <v>3.2252862441541685E-2</v>
-      </c>
-      <c r="M14">
+        <v>0.14275517487508924</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="3"/>
-        <v>0.24342534231688764</v>
-      </c>
-      <c r="N14">
+        <v>0.79942897930049961</v>
+      </c>
+      <c r="N14" s="13">
         <f t="shared" si="4"/>
-        <v>26.776277157956546</v>
-      </c>
-      <c r="O14">
+        <v>32.548179871520347</v>
+      </c>
+      <c r="O14" s="13">
         <f t="shared" si="5"/>
-        <v>0.97925660734968933</v>
+        <v>3.0029060381013886</v>
       </c>
       <c r="Q14">
         <f t="shared" si="6"/>
-        <v>0.2129032258064516</v>
+        <v>0.94218415417558887</v>
       </c>
       <c r="S14">
         <f t="shared" si="7"/>
-        <v>26.989180383762999</v>
-      </c>
-      <c r="U14" s="13">
+        <v>33.490364025695939</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="8"/>
-        <v>27.560886677913679</v>
+        <v>11.152651331997884</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -12399,33 +12399,33 @@
         <f t="shared" si="1"/>
         <v>0.10539999999999999</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="13">
         <f t="shared" si="2"/>
-        <v>0.1128850185453959</v>
-      </c>
-      <c r="M15">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="M15" s="13">
         <f t="shared" si="3"/>
-        <v>0.24777222342968919</v>
-      </c>
-      <c r="N15">
+        <v>0.8137044967880086</v>
+      </c>
+      <c r="N15" s="13">
         <f t="shared" si="4"/>
-        <v>5.1086318261890771</v>
-      </c>
-      <c r="O15">
+        <v>6.209850107066381</v>
+      </c>
+      <c r="O15" s="13">
         <f t="shared" si="5"/>
-        <v>1.0003158892281774</v>
+        <v>3.0674846625766872</v>
       </c>
       <c r="Q15">
         <f t="shared" si="6"/>
-        <v>0.29677419354838708</v>
+        <v>1.3133476088508209</v>
       </c>
       <c r="S15">
         <f t="shared" si="7"/>
-        <v>5.4054060197374643</v>
-      </c>
-      <c r="U15" s="13">
+        <v>7.5231977159172017</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="8"/>
-        <v>5.403699049415442</v>
+        <v>2.4525624553890077</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -12453,33 +12453,33 @@
         <f t="shared" si="1"/>
         <v>0.2329</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="13">
         <f t="shared" si="3"/>
-        <v>0.23690502064768529</v>
-      </c>
-      <c r="N16">
+        <v>0.77801570306923629</v>
+      </c>
+      <c r="N16" s="13">
         <f t="shared" si="4"/>
-        <v>13.035819142689371</v>
-      </c>
-      <c r="O16">
+        <v>15.845824411134906</v>
+      </c>
+      <c r="O16" s="13">
         <f t="shared" si="5"/>
-        <v>0.72654522480783412</v>
+        <v>2.2279625443978048</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>0.17580645161290323</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="S16">
         <f t="shared" si="7"/>
-        <v>13.211625594302275</v>
-      </c>
-      <c r="U16" s="13">
+        <v>16.623840114204143</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="8"/>
-        <v>18.184175111462128</v>
+        <v>7.4614540338681472</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -12507,33 +12507,33 @@
         <f t="shared" si="1"/>
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="13">
         <f t="shared" si="3"/>
-        <v>0.24125190176048686</v>
-      </c>
-      <c r="N17">
+        <v>0.79229122055674528</v>
+      </c>
+      <c r="N17" s="13">
         <f t="shared" si="4"/>
-        <v>2.7011156782149146</v>
-      </c>
-      <c r="O17">
+        <v>3.2833690221270517</v>
+      </c>
+      <c r="O17" s="13">
         <f t="shared" si="5"/>
-        <v>0.7791934295040539</v>
+        <v>2.3894091055860511</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>0.17903225806451614</v>
+        <v>0.79229122055674528</v>
       </c>
       <c r="S17">
         <f t="shared" si="7"/>
-        <v>2.8801479362794309</v>
-      </c>
-      <c r="U17" s="13">
+        <v>4.0756602426837967</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="8"/>
-        <v>3.6963195879521291</v>
+        <v>1.7057188880529348</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="10" customFormat="1">
@@ -12563,11 +12563,11 @@
       </c>
       <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>0.16126431220770843</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="3"/>
-        <v>0.2238643773092806</v>
+        <v>0.73518915060670953</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="4"/>
@@ -12575,19 +12575,19 @@
       </c>
       <c r="O18" s="10">
         <f t="shared" si="5"/>
-        <v>4.727808781720543</v>
+        <v>14.497901194704554</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="6"/>
-        <v>0.32741935483870965</v>
+        <v>1.4489650249821557</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="7"/>
-        <v>0.32741935483870965</v>
+        <v>1.4489650249821557</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="8"/>
-        <v>6.9253933472232201E-2</v>
+        <v>9.9943088694203472E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="10" customFormat="1">
@@ -12617,31 +12617,31 @@
       </c>
       <c r="L19" s="10">
         <f t="shared" si="2"/>
-        <v>9.6758587324625056E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="M19" s="10">
         <f t="shared" si="3"/>
-        <v>0.22821125842208217</v>
+        <v>0.74946466809421841</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="4"/>
-        <v>2.2313564298297122</v>
+        <v>2.7123483226266951</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="5"/>
-        <v>4.7699273454775195</v>
+        <v>14.627058443655152</v>
       </c>
       <c r="Q19" s="10">
         <f t="shared" si="6"/>
-        <v>0.26612903225806456</v>
+        <v>1.1777301927194861</v>
       </c>
       <c r="S19" s="10">
         <f t="shared" si="7"/>
-        <v>2.4974854620877767</v>
+        <v>3.8900785153461812</v>
       </c>
       <c r="U19" s="10">
         <f t="shared" si="8"/>
-        <v>0.52358983296793848</v>
+        <v>0.26595084242885481</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="10" customFormat="1">
@@ -12675,27 +12675,27 @@
       </c>
       <c r="M20" s="10">
         <f t="shared" si="3"/>
-        <v>0.23690502064768529</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="4"/>
-        <v>2.8772753963593658</v>
+        <v>3.4975017844396858</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="5"/>
-        <v>5.2753501105612299</v>
+        <v>16.176945431062318</v>
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="6"/>
-        <v>0.17580645161290323</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="7"/>
-        <v>3.053081847972269</v>
+        <v>4.2755174875089219</v>
       </c>
       <c r="U20" s="10">
         <f t="shared" si="8"/>
-        <v>0.57874487645095085</v>
+        <v>0.26429695925778707</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="10" customFormat="1">
@@ -12729,27 +12729,27 @@
       </c>
       <c r="M21" s="10">
         <f t="shared" si="3"/>
-        <v>0.23907846120408607</v>
+        <v>0.78515346181299062</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="4"/>
-        <v>23.487962419260128</v>
+        <v>28.551034975017846</v>
       </c>
       <c r="O21" s="10">
         <f t="shared" si="5"/>
-        <v>5.3490575971359382</v>
+        <v>16.402970616725863</v>
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="6"/>
-        <v>0.17741935483870966</v>
+        <v>0.78515346181299062</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="7"/>
-        <v>23.665381774098837</v>
+        <v>29.336188436830835</v>
       </c>
       <c r="U21" s="10">
         <f t="shared" si="8"/>
-        <v>4.4242151714294611</v>
+        <v>1.7884680234028563</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -12777,33 +12777,33 @@
         <f t="shared" si="1"/>
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="13">
         <f t="shared" si="3"/>
-        <v>0.18691588785046731</v>
-      </c>
-      <c r="N22">
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="N22" s="13">
         <f t="shared" si="4"/>
-        <v>1.7028772753963592</v>
-      </c>
-      <c r="O22">
+        <v>2.0699500356887941</v>
+      </c>
+      <c r="O22" s="13">
         <f t="shared" si="5"/>
-        <v>0.22112245972412345</v>
+        <v>0.67807555699063626</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>0.13870967741935483</v>
+        <v>0.6138472519628837</v>
       </c>
       <c r="S22">
         <f t="shared" si="7"/>
-        <v>1.8415869528157141</v>
-      </c>
-      <c r="U22" s="13">
+        <v>2.6837972876516778</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="8"/>
-        <v>8.3283577575670638</v>
+        <v>3.9579619999320208</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -12831,33 +12831,33 @@
         <f t="shared" si="1"/>
         <v>0.122</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="13">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
-      </c>
-      <c r="N23">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="N23" s="13">
         <f t="shared" si="4"/>
-        <v>6.6353493834409862</v>
-      </c>
-      <c r="O23">
+        <v>8.0656673804425409</v>
+      </c>
+      <c r="O23" s="13">
         <f t="shared" si="5"/>
-        <v>0.18953353690639146</v>
+        <v>0.58120762027768813</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>0.14516129032258063</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>6.7805106737635672</v>
-      </c>
-      <c r="U23" s="13">
+        <v>8.708065667380442</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="8"/>
-        <v>35.77472770485145</v>
+        <v>14.982710762154015</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -12885,33 +12885,33 @@
         <f t="shared" si="1"/>
         <v>0.1235</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="13">
         <f t="shared" si="3"/>
-        <v>0.18474244729406653</v>
-      </c>
-      <c r="N24">
+        <v>0.60670949321912926</v>
+      </c>
+      <c r="N24" s="13">
         <f t="shared" si="4"/>
-        <v>6.7527891955372876</v>
-      </c>
-      <c r="O24">
+        <v>8.2084225553176307</v>
+      </c>
+      <c r="O24" s="13">
         <f t="shared" si="5"/>
-        <v>0.56860061071917445</v>
+        <v>1.7436228608330644</v>
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
-        <v>0.1370967741935484</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="S24">
         <f t="shared" si="7"/>
-        <v>6.8898859697308357</v>
-      </c>
-      <c r="U24" s="13">
+        <v>8.8151320485367606</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="8"/>
-        <v>12.117267973061805</v>
+        <v>5.0556414730219155</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -12939,33 +12939,33 @@
         <f t="shared" si="1"/>
         <v>0.1759</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="13">
         <f t="shared" si="3"/>
-        <v>0.19343620951966964</v>
-      </c>
-      <c r="N25">
+        <v>0.63526052819414702</v>
+      </c>
+      <c r="N25" s="13">
         <f t="shared" si="4"/>
-        <v>9.8062243100411042</v>
-      </c>
-      <c r="O25">
+        <v>11.920057102069951</v>
+      </c>
+      <c r="O25" s="13">
         <f t="shared" si="5"/>
-        <v>0.60018953353690641</v>
+        <v>1.8404907975460125</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>0.1435483870967742</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="S25">
         <f t="shared" si="7"/>
-        <v>9.9497726971378775</v>
-      </c>
-      <c r="U25" s="13">
+        <v>12.555317630264097</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="8"/>
-        <v>16.577717772757616</v>
+        <v>6.8217225791101583</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="10" customFormat="1">
@@ -12995,31 +12995,31 @@
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
-        <v>8.0632156103854213E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="4"/>
-        <v>0.58719906048150317</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="5"/>
-        <v>3.0325365905022634</v>
+        <v>9.2993219244430101</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="6"/>
-        <v>0.22258064516129034</v>
+        <v>0.98501070663811574</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="7"/>
-        <v>0.80977970564279356</v>
+        <v>1.6987865810135618</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="8"/>
-        <v>0.26703048140588931</v>
+        <v>0.18267854310413195</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="10" customFormat="1">
@@ -13049,31 +13049,31 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>3.2252862441541685E-2</v>
+        <v>0.14275517487508924</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="4"/>
-        <v>1.4092777451556076</v>
+        <v>1.7130620985010707</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="5"/>
-        <v>3.3168368958618513</v>
+        <v>10.171133354859542</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="6"/>
-        <v>0.17741935483870966</v>
+        <v>0.78515346181299073</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="7"/>
-        <v>1.5866970999943173</v>
+        <v>2.4982155603140614</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="8"/>
-        <v>0.47837658281415968</v>
+        <v>0.24561820921563962</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="10" customFormat="1">
@@ -13107,27 +13107,27 @@
       </c>
       <c r="M28" s="10">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" si="4"/>
-        <v>0.11743981209630065</v>
+        <v>0.14275517487508924</v>
       </c>
       <c r="O28" s="10">
         <f t="shared" si="5"/>
-        <v>4.8436348320522269</v>
+        <v>14.853083629318697</v>
       </c>
       <c r="Q28" s="10">
         <f t="shared" si="6"/>
-        <v>0.14193548387096774</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" si="7"/>
-        <v>0.25937529596726838</v>
+        <v>0.77087794432548196</v>
       </c>
       <c r="U28" s="10">
         <f t="shared" si="8"/>
-        <v>5.3549721430459739E-2</v>
+        <v>5.1900195512522118E-2</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="10" customFormat="1">
@@ -13161,27 +13161,27 @@
       </c>
       <c r="M29" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" si="4"/>
-        <v>2.1726365237815619</v>
+        <v>2.6409707351891503</v>
       </c>
       <c r="O29" s="10">
         <f t="shared" si="5"/>
-        <v>4.8015162682952512</v>
+        <v>14.7239263803681</v>
       </c>
       <c r="Q29" s="10">
         <f t="shared" si="6"/>
-        <v>0.14677419354838711</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="S29" s="10">
         <f t="shared" si="7"/>
-        <v>2.3194107173299492</v>
+        <v>3.2905067808708064</v>
       </c>
       <c r="U29" s="10">
         <f t="shared" si="8"/>
-        <v>0.4830579733000554</v>
+        <v>0.22348025220080892</v>
       </c>
     </row>
   </sheetData>
